--- a/assets/data/xlsx/open_jobs.xlsx
+++ b/assets/data/xlsx/open_jobs.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>

--- a/assets/data/xlsx/open_jobs.xlsx
+++ b/assets/data/xlsx/open_jobs.xlsx
@@ -508,12 +508,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banco Daycoval</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,27 +523,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ANALISTA DE INVESTIMENTOS SÊNIOR - COMUNICAÇÃO E ESTRATÉGIA</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://bancodaycoval.gupy.io/jobs/8369058?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8371894?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -576,12 +576,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANALISTA SRE SÊNIOR</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALTO DA BOA VISTA (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/8258627?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8374780?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Banco Daycoval</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -659,22 +659,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - OPERAÇÕES (CCO)</t>
+          <t>ANALISTA DE INVESTIMENTOS SÊNIOR - COMUNICAÇÃO E ESTRATÉGIA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/6708625?jobBoardSource=gupy_public_page</t>
+          <t>https://bancodaycoval.gupy.io/jobs/8369058?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -712,12 +712,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digio</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERENTE DE PRODUTOS CONSIGNADO</t>
+          <t>ANALISTA SRE SÊNIOR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://digio.gupy.io/jobs/8200092?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/8258627?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -795,22 +795,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS CORPORATIVO- EXCLUSIVO PCD</t>
+          <t>BANCO DE TALENTOS - OPERAÇÕES (CCO)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://embraer.gupy.io/jobs/7499337?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/6708625?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GAVIÃO PEIXOTO - SP</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -848,12 +848,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>Digio</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -863,17 +863,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE GESTÃO III - QUALIDADE</t>
+          <t>GERENTE DE PRODUTOS CONSIGNADO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8422458?jobBoardSource=gupy_public_page</t>
+          <t>https://digio.gupy.io/jobs/8200092?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CUIABÁ - MT</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -916,12 +916,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ANALISTA FISCAL PL (SÃO PAULO - SP)</t>
+          <t>BANCO DE TALENTOS CORPORATIVO- EXCLUSIVO PCD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8311041?jobBoardSource=gupy_public_page</t>
+          <t>https://embraer.gupy.io/jobs/7499337?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>GAVIÃO PEIXOTO - SP</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,12 +984,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
+          <t>ANALISTA DE SUPORTE GESTÃO III - QUALIDADE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8415780?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8422458?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ</t>
+          <t>CUIABÁ - MT</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Grupo L'Occitane</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING E PRODUTO AUTOMOTIVO SÊNIOR</t>
+          <t>ANALISTA FISCAL PL (SÃO PAULO - SP)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://porto.gupy.io/jobs/8352185?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8311041?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1093,12 +1093,12 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raizen</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1135,17 +1135,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANALISTA CONTABIL SÊNIOR</t>
+          <t>ANALISTA DE MARKETING E PRODUTO AUTOMOTIVO SÊNIOR</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8281027?jobBoardSource=gupy_public_page</t>
+          <t>https://porto.gupy.io/jobs/8352185?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1161,7 +1161,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ANALISTA DE DESENVOLVIMENTO DE FORNECEDORES JÚNIOR - FOCO EM INSPEÇÃO DE ALOJAMENTOS (SSMA)</t>
+          <t>ANALISTA CONTABIL SÊNIOR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/7914346?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8281027?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8370440?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/7914346?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP</t>
+          <t>PIRACICABA - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANALISTA DE GESTÃO DE RISCOS E CONTROLES INTERNOS PLENO</t>
+          <t>ANALISTA DE DESENVOLVIMENTO DE FORNECEDORES JÚNIOR - FOCO EM INSPEÇÃO DE ALOJAMENTOS (SSMA)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8140948?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8370440?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>PIRACICABA - SP</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING PLENO (GROWTH B2C)</t>
+          <t>ANALISTA DE GESTÃO DE RISCOS E CONTROLES INTERNOS PLENO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8317422?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8140948?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1433,7 +1433,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sicredi</t>
+          <t>Raizen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cooperativa</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1475,22 +1475,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0228 - JOVEM APRENDIZ- BANCO DE TALENTOS- PASSO FUNDO RS</t>
+          <t>ANALISTA DE MARKETING PLENO (GROWTH B2C)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7685309?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8317422?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PASSO FUNDO - RS</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1501,12 +1501,12 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1543,22 +1543,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0258 GERENTE DE NEGÓCIOS - PÚBLICO AGRO - AGÊNCIA DE LIBERATO SALZANO/RS - SICREDI REGIÃO DA PRODUÇÃO/RS/SC/MG</t>
+          <t>0228 - JOVEM APRENDIZ- BANCO DE TALENTOS- PASSO FUNDO RS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/8435407?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7685309?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LIBERATO SALZANO - RS</t>
+          <t>PASSO FUNDO - RS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0307 - ASSISTENTE DE NEGÓCIOS - SÃO BORJA (RS)</t>
+          <t>0258 GERENTE DE NEGÓCIOS - PÚBLICO AGRO - AGÊNCIA DE LIBERATO SALZANO/RS - SICREDI REGIÃO DA PRODUÇÃO/RS/SC/MG</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7532381?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/8435407?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SÃO BORJA - RS</t>
+          <t>LIBERATO SALZANO - RS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0307 - GERENTE DE NEGÓCIOS AGRO - SÃO BORJA (RS)</t>
+          <t>0307 - ASSISTENTE DE NEGÓCIOS - SÃO BORJA (RS)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7530795?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7532381?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Sicredi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Cooperativa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1747,17 +1747,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVIMENTO COMERCIAL SÊNIOR | EXCLUSIVA PARA PROFISSIONAIS PRETOS OU PARDOS</t>
+          <t>0307 - GERENTE DE NEGÓCIOS AGRO - SÃO BORJA (RS)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8350808?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7530795?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO BORJA - RS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS ERP SÊNIOR</t>
+          <t>ANALISTA DESENVOLVIMENTO COMERCIAL SÊNIOR | EXCLUSIVA PARA PROFISSIONAIS PRETOS OU PARDOS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8143368?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8350808?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1868,12 +1868,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alura</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ANALISTA DE GROWTH E LANÇAMENTOS DIGITAIS</t>
+          <t>ANALISTA DE SISTEMAS ERP SÊNIOR</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8423571?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8143368?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1951,12 +1951,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ESTÁGIO EM GROWTH E LANÇAMENTO DE PRODUTO</t>
+          <t>ANALISTA DE GROWTH E LANÇAMENTOS DIGITAIS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8423249?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8423571?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2004,12 +2004,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Banco ABC</t>
+          <t>Alura</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Educação</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGÊNCIA DE PERFORMANCE SR - PROCESSOS</t>
+          <t>ESTÁGIO EM GROWTH E LANÇAMENTO DE PRODUTO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://abcbrasil.gupy.io/jobs/8436418?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8423249?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2045,17 +2045,17 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2082,27 +2082,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS PLENO EM CRÉDITO</t>
+          <t>ANALISTA DE INTELIGÊNCIA DE PERFORMANCE SR - PROCESSOS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/81449e68-5022-4193-ac77-31c76b0eefdc</t>
+          <t>https://abcbrasil.gupy.io/jobs/8436418?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO DE RISCOS DE CRÉDITO ATACADO</t>
+          <t>CIENTISTA DE DADOS PLENO EM CRÉDITO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/98bd2aed-124b-49c6-b47e-52034e468c02</t>
+          <t>https://jobs.lever.co/bv/81449e68-5022-4193-ac77-31c76b0eefdc</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2181,7 +2181,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2218,27 +2218,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AJUDANTE DE OFICINA</t>
+          <t>ANALISTA PLENO DE RISCOS DE CRÉDITO ATACADO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8125527?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/98bd2aed-124b-49c6-b47e-52034e468c02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2276,7 +2276,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Banco Sofisa</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2291,17 +2291,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ANALISTA DE OPERAÇÕES SR - TEMPORÁRIA</t>
+          <t>AJUDANTE DE OFICINA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8415353?jobBoardSource=gupy_public_page</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8125527?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
@@ -2359,22 +2359,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[BANCO DE TALENTOS] GERENTE COMERCIAL MIDDLE BAURU</t>
+          <t>ANALISTA DE OPERAÇÕES SR - TEMPORÁRIA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8418537?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8415353?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2405,19 +2405,19 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>banQi</t>
+          <t>Banco Sofisa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2427,22 +2427,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROCESSOS PLENO (ADQUIRÊNCIA)</t>
+          <t>[BANCO DE TALENTOS] GERENTE COMERCIAL MIDDLE BAURU</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://banqi.gupy.io/jobs/8272625?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8418537?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2480,12 +2480,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BMG</t>
+          <t>banQi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE TI</t>
+          <t>ANALISTA DE PROCESSOS PLENO (ADQUIRÊNCIA)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8111600?jobBoardSource=gupy_public_page</t>
+          <t>https://banqi.gupy.io/jobs/8272625?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C&amp;A</t>
+          <t>BMG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2563,17 +2563,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ANALISTA CONTÁBIL SÊNIOR | CONSOLIDAÇÃO E REPORTE</t>
+          <t>COORDENADOR(A) DE TI</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8439772?jobBoardSource=gupy_public_page</t>
+          <t>https://bmg.gupy.io/jobs/8111600?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2631,12 +2631,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ANALISTA DE COMUNICAÇÃO INTERNA SÊNIOR - TEMPORÁRIO</t>
+          <t>ANALISTA CONTÁBIL SÊNIOR | CONSOLIDAÇÃO E REPORTE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8435919?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8439772?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TEMPORÁRIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Centauro</t>
+          <t>C&amp;A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2699,22 +2699,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>APRENDIZ DE LOJA - SHOPPING BOUGAINVILLE</t>
+          <t>ANALISTA DE COMUNICAÇÃO INTERNA SÊNIOR - TEMPORÁRIO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://centaurotalentos.gupy.io/jobs/8123270?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8435919?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GOIÂNIA - GO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>TEMPORÁRIO</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2745,44 +2745,44 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Centauro</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[JOB-19518] DESENVOLVEDOR SENIOR FULLSTACK (ANGULAR/REACT, JAVA/NESTJS+MFE), CAMPINAS, BRASIL (PRESENCIAL)</t>
+          <t>APRENDIZ DE LOJA - SHOPPING BOUGAINVILLE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/1ad42303-37a7-4d14-b055-c0a7e28ccfd0</t>
+          <t>https://centaurotalentos.gupy.io/jobs/8123270?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ON-SITE — </t>
+          <t>GOIÂNIA - GO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CAMPINAS, SP / BRAZIL</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[JOB-19532] DESENVOLVEDOR SENIOR FRONTEND(ANGULAR+MFE+AEM) , CAMPINAS, BRASIL (PRESENCIAL)</t>
+          <t>[JOB-19518] DESENVOLVEDOR SENIOR FULLSTACK (ANGULAR/REACT, JAVA/NESTJS+MFE), CAMPINAS, BRASIL (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/19df79b9-13c6-4696-b5b6-9b23e6dbebb8</t>
+          <t>https://jobs.lever.co/ciandt/1ad42303-37a7-4d14-b055-c0a7e28ccfd0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[JOB - 19731] JUNIOR FRONTEND DEVELOPER, COLOMBIA</t>
+          <t>[JOB-19532] DESENVOLVEDOR SENIOR FRONTEND(ANGULAR+MFE+AEM) , CAMPINAS, BRASIL (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a6a91c4e-66eb-43dd-bcc3-d1f223b5a5c5</t>
+          <t>https://jobs.lever.co/ciandt/19df79b9-13c6-4696-b5b6-9b23e6dbebb8</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">ON-SITE — </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>CAMPINAS, SP / BRAZIL</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[JOB - 19733] MID FRONTEND DEVELOPER, COLOMBIA</t>
+          <t>[JOB - 19731] JUNIOR FRONTEND DEVELOPER, COLOMBIA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/daf0e157-aa26-4b1f-bdd0-999bd2ee0856</t>
+          <t>https://jobs.lever.co/ciandt/a6a91c4e-66eb-43dd-bcc3-d1f223b5a5c5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[JOB 19701] DATA ENGINEER, SUSTENTAÇÃO, MID LEVEL, BRASIL (COPY)</t>
+          <t>[JOB - 19733] MID FRONTEND DEVELOPER, COLOMBIA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/f426c920-d059-4c64-9114-1e29a20a176a</t>
+          <t>https://jobs.lever.co/ciandt/daf0e157-aa26-4b1f-bdd0-999bd2ee0856</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3065,12 +3065,12 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[JOB-19717 ] MID LEVEL DEVELOPER BACK END (NODEJS/JAVA), BRAZIL</t>
+          <t>[JOB 19701] DATA ENGINEER, SUSTENTAÇÃO, MID LEVEL, BRASIL (COPY)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/d6925722-d984-4386-955c-561cdd8f6481</t>
+          <t>https://jobs.lever.co/ciandt/f426c920-d059-4c64-9114-1e29a20a176a</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3175,17 +3175,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[JOB- 19244] SENIOR AGILE COACH, BRAZIL</t>
+          <t>[JOB-19717 ] MID LEVEL DEVELOPER BACK END (NODEJS/JAVA), BRAZIL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a81001c1-4930-441b-88e1-890342f4029b</t>
+          <t>https://jobs.lever.co/ciandt/d6925722-d984-4386-955c-561cdd8f6481</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3228,37 +3228,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA EM PROJETOS SÊNIOR</t>
+          <t>[JOB- 19244] SENIOR AGILE COACH, BRAZIL</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/7724095?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/a81001c1-4930-441b-88e1-890342f4029b</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3296,12 +3296,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CVP (Caixa Vida e Previdência)</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3311,17 +3311,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS PL</t>
+          <t>ANALISTA DE SEGURANCA EM PROJETOS SÊNIOR</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/8393352?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/7724095?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3379,12 +3379,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS PL (EXCLUSIVA PARA PCD)</t>
+          <t>ANALISTA DE PRODUTOS PL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/8439522?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/8393352?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3432,12 +3432,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dasa Tecnologia</t>
+          <t>CVP (Caixa Vida e Previdência)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ANALISTA ANALYTICS III</t>
+          <t>ANALISTA DE PRODUTOS PL (EXCLUSIVA PARA PCD)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://dasatecnologia.gupy.io/jobs/8370059?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/8439522?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3473,12 +3473,12 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3500,12 +3500,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daycoval DayCred</t>
+          <t>Dasa Tecnologia</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Saúde</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3515,17 +3515,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL JUNIOR</t>
+          <t>ANALISTA ANALYTICS III</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://daycred.gupy.io/jobs/8376251?jobBoardSource=gupy_public_page</t>
+          <t>https://dasatecnologia.gupy.io/jobs/8370059?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE - MS</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3541,12 +3541,12 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3588,12 +3588,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://daycred.gupy.io/jobs/7897201?jobBoardSource=gupy_public_page</t>
+          <t>https://daycred.gupy.io/jobs/8376251?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>CAMPO GRANDE - MS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Digio</t>
+          <t>Daycoval DayCred</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3651,17 +3651,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ESPECIALISTA DE PLANEJAMENTO COMERCIAL</t>
+          <t>ASSISTENTE COMERCIAL JUNIOR</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://digio.gupy.io/jobs/8355682?jobBoardSource=gupy_public_page</t>
+          <t>https://daycred.gupy.io/jobs/7897201?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3704,37 +3704,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>Digio</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FINANCE TRANSFORMATION ANALYST JR</t>
+          <t>ESPECIALISTA DE PLANEJAMENTO COMERCIAL</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6315312003</t>
+          <t>https://digio.gupy.io/jobs/8355682?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CURITIBA OR SÃO PAULO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3772,37 +3772,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GPA</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FRENTISTA CAIXA (529902)</t>
+          <t>FINANCE TRANSFORMATION ANALYST JR</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://digitalgpa.gupy.io/jobs/8432804?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6315312003</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>CURITIBA OR SÃO PAULO</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3840,12 +3840,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>GPA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L TERESINA/PI</t>
+          <t>FRENTISTA CAIXA (529902)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://grupoboticario.gupy.io/jobs/8405578?jobBoardSource=gupy_public_page</t>
+          <t>https://digitalgpa.gupy.io/jobs/8432804?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FORTALEZA - CE</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3908,12 +3908,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Grupo Boticário</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3923,17 +3923,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGÊNCIA E PESQUISA DE MERCADO JUNIOR</t>
+          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L TERESINA/PI</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8178222?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoboticario.gupy.io/jobs/8405578?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>FORTALEZA - CE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3949,7 +3949,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3976,12 +3976,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3991,22 +3991,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(AGUA BRANCA - SAO PAULO/SP)</t>
+          <t>ANALISTA DE INTELIGÊNCIA E PESQUISA DE MERCADO JUNIOR</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8438305?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8178222?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4017,12 +4017,12 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4044,12 +4044,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PagSeguro</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4059,22 +4059,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROCESSOS JR (AUDITORIA)</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(AGUA BRANCA - SAO PAULO/SP)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://pagseguro.gupy.io/jobs/8010844?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8438305?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>SAO PAULO - SP</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4112,12 +4112,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paschoalotto</t>
+          <t>PagSeguro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gestão de Relacionamentos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4127,17 +4127,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ANALISTA DE DHO</t>
+          <t>ANALISTA DE PROCESSOS JR (AUDITORIA)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://paschoalotto.gupy.io/jobs/8437798?jobBoardSource=gupy_public_page</t>
+          <t>https://pagseguro.gupy.io/jobs/8010844?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4180,12 +4180,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Paschoalotto</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Gestão de Relacionamentos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ANALISTA DE INFORMAÇÕES GERENCIAS PLENO</t>
+          <t>ANALISTA DE DHO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://porto.gupy.io/jobs/8256963?jobBoardSource=gupy_public_page</t>
+          <t>https://paschoalotto.gupy.io/jobs/8437798?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4248,37 +4248,37 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Software Quality Analyst</t>
+          <t>ANALISTA DE INFORMAÇÕES GERENCIAS PLENO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/B5C33406E5</t>
+          <t>https://porto.gupy.io/jobs/8256963?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RecargaPay</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4331,17 +4331,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sr Fraud Prevention Manager</t>
+          <t>Grupo QuintoAndar | Software Quality Analyst</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/recargapay/j/1FE7778392</t>
+          <t>https://apply.workable.com/quintoandar/j/B5C33406E5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>None / Brazil</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sinch</t>
+          <t>RecargaPay</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4399,22 +4399,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lead System Engineer/Team Lead - System &amp; Operations (Mumbai)</t>
+          <t>Sr Fraud Prevention Manager</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/B462C95067</t>
+          <t>https://apply.workable.com/recargapay/j/1FE7778392</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mumbai / India</t>
+          <t>None / Brazil</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>12 - Líder</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4452,37 +4452,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Sinch</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
+          <t>Lead System Engineer/Team Lead - System &amp; Operations (Mumbai)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415508?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/sinch/j/B462C95067</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>Mumbai / India</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>12 - Líder</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4520,12 +4520,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4535,17 +4535,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ANALISTA CONTÁBIL SÊNIOR</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8129455?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8415508?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS FINANCEIROS SR | SÃO PAULO</t>
+          <t>ANALISTA CONTÁBIL SÊNIOR</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8416551?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8129455?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vivo Digital</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4671,12 +4671,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS SÊNIOR</t>
+          <t>ANALISTA DE PRODUTOS FINANCEIROS SR | SÃO PAULO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://vivodigital.gupy.io/jobs/8371091?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8416551?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4724,37 +4724,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XP Inc</t>
+          <t>Vivo Digital</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PRODUCT DESIGN 2</t>
+          <t>ANALISTA DE SISTEMAS SÊNIOR</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7805055002</t>
+          <t>https://vivodigital.gupy.io/jobs/8371091?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PRODUCT DESIGN 3</t>
+          <t>PRODUCT DESIGN 2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7805783002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7805055002</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4860,42 +4860,42 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>XP Inc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>COORDENADORA DE CIBERSEGURANÇA E REDES (VAGA EXCLUSIVA AFIRMATIVA PARA MULHERES)</t>
+          <t>PRODUCT DESIGN 3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8290964?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7805783002</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4928,37 +4928,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>GERENTE RELACIONAMENTO VEÍCULOS | IPIRANGA - SP</t>
+          <t>COORDENADORA DE CIBERSEGURANÇA E REDES (VAGA EXCLUSIVA AFIRMATIVA PARA MULHERES)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/da9cebc7-4d0d-4d91-aecc-1031767e1d6f</t>
+          <t>https://anbima.gupy.io/jobs/8290964?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ON-SITE — </t>
+          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4996,37 +4996,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS AFIRMATIVO PESSOAS COM DEFICIÊNCIA</t>
+          <t>GERENTE RELACIONAMENTO VEÍCULOS | IPIRANGA - SP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/7480512?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/da9cebc7-4d0d-4d91-aecc-1031767e1d6f</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t xml:space="preserve">ON-SITE — </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5064,12 +5064,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVP (Caixa Vida e Previdência)</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVIMENTO DE SISTEMAS JR (EXCLUSIVA PARA PCD)</t>
+          <t>BANCO DE TALENTOS AFIRMATIVO PESSOAS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/7905691?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/7480512?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5132,12 +5132,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>CVP (Caixa Vida e Previdência)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5147,17 +5147,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ANALISTA DE CANAIS DIGITAIS II</t>
+          <t>ANALISTA DESENVOLVIMENTO DE SISTEMAS JR (EXCLUSIVA PARA PCD)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8353601?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/7905691?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>JOÃO PESSOA - PB</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5200,12 +5200,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GOL Linhas Aéreas</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5215,17 +5215,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO III - MODELAGEM FINANCEIRA</t>
+          <t>ANALISTA DE CANAIS DIGITAIS II</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://golcarreiras.gupy.io/jobs/8120778?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8353601?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>JOÃO PESSOA - PB</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5241,12 +5241,12 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5268,12 +5268,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>GOL Linhas Aéreas</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5283,22 +5283,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(ALTO DOS PASSOS - JUIZ DE FORA/MG)</t>
+          <t>ANALISTA FINANCEIRO III - MODELAGEM FINANCEIRA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8433295?jobBoardSource=gupy_public_page</t>
+          <t>https://golcarreiras.gupy.io/jobs/8120778?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>JUIZ DE FORA - MG</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5309,12 +5309,12 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5336,37 +5336,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sinch</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Anti Fraud Engineer</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(ALTO DOS PASSOS - JUIZ DE FORA/MG)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/09AEDD0F99</t>
+          <t>https://restaurantemc.gupy.io/jobs/8433295?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Singapore / Singapore</t>
+          <t>JUIZ DE FORA - MG</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5419,17 +5419,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>System Engineer / Senior System Engineer - Mumbai</t>
+          <t>Anti Fraud Engineer</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/6650B6E681</t>
+          <t>https://apply.workable.com/sinch/j/09AEDD0F99</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mumbai / India</t>
+          <t>Singapore / Singapore</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5472,37 +5472,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Agi</t>
+          <t>Sinch</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - PIRACICABA/SP (PRESENCIAL)</t>
+          <t>System Engineer / Senior System Engineer - Mumbai</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8392522?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/sinch/j/6650B6E681</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP</t>
+          <t>Mumbai / India</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5555,17 +5555,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO PAULO/SP - ITAQUERA (PRESENCIAL)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - PIRACICABA/SP (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8247499?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8392522?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>PIRACICABA - SP</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5623,17 +5623,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - VIAMÃO/RS (PRESENCIAL) AFIRMATIVA PARA PESSOAS COM DEFICIÊNCIA</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO PAULO/SP - ITAQUERA (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8348897?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8247499?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VIAMÃO - RS</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5691,22 +5691,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - SUPERVISOR/A DE VENDAS - SÃO PAULO/ABC (PRESENCIAL)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - VIAMÃO/RS (PRESENCIAL) AFIRMATIVA PARA PESSOAS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/6959213?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8348897?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>VIAMÃO - RS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>13 - Supervisor</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5744,12 +5744,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Alura</t>
+          <t>Agi</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5759,22 +5759,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRÉ VENDAS - B2B</t>
+          <t>BANCO DE TALENTOS - SUPERVISOR/A DE VENDAS - SÃO PAULO/ABC (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8428140?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/6959213?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5790,12 +5790,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>13 - Supervisor</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5812,12 +5812,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>Alura</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Educação</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5827,17 +5827,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS SR</t>
+          <t>ANALISTA DE PRÉ VENDAS - B2B</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8391497?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8428140?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5853,17 +5853,17 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5880,37 +5880,37 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>JOVEM APRENDIZ (AUDITORIA DE TI) | VAGA AFIRMATIVA PARA PESSOAS PRETAS E PARDAS</t>
+          <t>CIENTISTA DE DADOS SR</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/dbd8e71f-6361-4777-ab55-a768008a332b</t>
+          <t>https://anbima.gupy.io/jobs/8391497?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5921,12 +5921,12 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ADVOGADO PLENO - CONSULTIVO NEGÓCIOS</t>
+          <t>JOVEM APRENDIZ (AUDITORIA DE TI) | VAGA AFIRMATIVA PARA PESSOAS PRETAS E PARDAS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/f5cf217f-e331-4504-86c8-69750ea98c94</t>
+          <t>https://jobs.lever.co/bv/dbd8e71f-6361-4777-ab55-a768008a332b</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5989,12 +5989,12 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>08 - Jurídico</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>COORDENAÇÃO RISCOS DE CRÉDITO - ATACADO</t>
+          <t>ADVOGADO PLENO - CONSULTIVO NEGÓCIOS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/d968fcfd-c06a-4a60-a58c-ab7878450846</t>
+          <t>https://jobs.lever.co/bv/f5cf217f-e331-4504-86c8-69750ea98c94</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6057,12 +6057,12 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Jurídico</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6084,7 +6084,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Banco Mercantil</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6094,27 +6094,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS | AGENTE COMERCIAL E SUPORTE (MG)</t>
+          <t>COORDENAÇÃO RISCOS DE CRÉDITO - ATACADO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://mercantil.gupy.io/jobs/6952749?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/d968fcfd-c06a-4a60-a58c-ab7878450846</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE - MG</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6152,7 +6152,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Banco Sofisa</t>
+          <t>Banco Mercantil</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6167,22 +6167,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ANALISTA DE FORMALIZAÇÃO PLENO - TEMPORÁRIO</t>
+          <t>BANCO DE TALENTOS | AGENTE COMERCIAL E SUPORTE (MG)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8419431?jobBoardSource=gupy_public_page</t>
+          <t>https://mercantil.gupy.io/jobs/6952749?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BELO HORIZONTE - MG</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
@@ -6235,12 +6235,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE RELACIONAMENTO II (COM CERTIFICAÇÃO: CPA20 OU CEA)</t>
+          <t>ANALISTA DE FORMALIZAÇÃO PLENO - TEMPORÁRIO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8415782?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8419431?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6281,19 +6281,19 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bauducco</t>
+          <t>Banco Sofisa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6303,22 +6303,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS- PROGRAMA JOVEM APRENDIZ - REGIONAL SUL</t>
+          <t>ASSISTENTE DE RELACIONAMENTO II (COM CERTIFICAÇÃO: CPA20 OU CEA)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://bauducco.gupy.io/jobs/7671091?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8415782?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CURITIBA - PR</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6356,12 +6356,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BMG</t>
+          <t>Bauducco</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6371,22 +6371,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE DESENVOLVIMENTO DE SOFTWARE</t>
+          <t>BANCO DE TALENTOS- PROGRAMA JOVEM APRENDIZ - REGIONAL SUL</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8369833?jobBoardSource=gupy_public_page</t>
+          <t>https://bauducco.gupy.io/jobs/7671091?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CURITIBA - PR</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6439,17 +6439,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE OPERAÇÕES - CONVÊNIOS</t>
+          <t>COORDENADOR(A) DE DESENVOLVIMENTO DE SOFTWARE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8349932?jobBoardSource=gupy_public_page</t>
+          <t>https://bmg.gupy.io/jobs/8369833?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6492,37 +6492,37 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>BMG</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[JOB 19709] ANALISTA DE CONTROLES INTERNOS SOX, PLENO, CAMPINAS</t>
+          <t>COORDENADOR(A) DE OPERAÇÕES - CONVÊNIOS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/258a645e-5f76-49fe-a2fa-a38ffa18d140</t>
+          <t>https://bmg.gupy.io/jobs/8349932?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CAMPINAS, SP</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6575,22 +6575,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[JOB-19653] SENIOR JAVA DEVELOPER, BRAZIL</t>
+          <t>[JOB 19709] ANALISTA DE CONTROLES INTERNOS SOX, PLENO, CAMPINAS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/814c5025-b53e-4439-86e4-b14471dfef19</t>
+          <t>https://jobs.lever.co/ciandt/258a645e-5f76-49fe-a2fa-a38ffa18d140</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BRAZIL / CAMPINAS, SP</t>
+          <t>CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6606,12 +6606,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6643,12 +6643,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[JOB-19693] SENIOR AI/ML DEVELOPER, BRAZIL</t>
+          <t>[JOB-19653] SENIOR JAVA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e6ac0008-fb0e-45c8-82ff-6e66a66e3b63</t>
+          <t>https://jobs.lever.co/ciandt/814c5025-b53e-4439-86e4-b14471dfef19</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6711,12 +6711,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[JOB-19721] MID-LEVEL JAVA DEVELOPER, BRAZIL</t>
+          <t>[JOB-19693] SENIOR AI/ML DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/7eb708d6-0b59-4438-b0a3-3dfdb015a8e1</t>
+          <t>https://jobs.lever.co/ciandt/e6ac0008-fb0e-45c8-82ff-6e66a66e3b63</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6779,12 +6779,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[JOB- 19681] SENIOR QA AUTOMATION, BRAZIL</t>
+          <t>[JOB-19721] MID-LEVEL JAVA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/06706642-055e-47d4-8f5f-9355d8d69734</t>
+          <t>https://jobs.lever.co/ciandt/7eb708d6-0b59-4438-b0a3-3dfdb015a8e1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BRAZIL / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[JOB-19679] SENIOR FULLSTACK (JAVA E REACT) DEVELOPER, BRAZIL</t>
+          <t>[JOB- 19681] SENIOR QA AUTOMATION, BRAZIL</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/4526b6eb-3f34-47a1-8fcc-c29b6f417b4f</t>
+          <t>https://jobs.lever.co/ciandt/06706642-055e-47d4-8f5f-9355d8d69734</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[JOB 19644] MID LEVEL DATA DEVELOPER, BRAZIL</t>
+          <t>[JOB-19679] SENIOR FULLSTACK (JAVA E REACT) DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/f48d9db7-83e3-48df-a494-1c1ed1d99c91</t>
+          <t>https://jobs.lever.co/ciandt/4526b6eb-3f34-47a1-8fcc-c29b6f417b4f</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6941,12 +6941,12 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6983,12 +6983,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[JOB-19652]MID-LEVEL FULL STACK DEVELOPER (NODEJS/REACT NATIVE)</t>
+          <t>[JOB 19644] MID LEVEL DATA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a1ef0f3c-4e81-4382-a01e-cce73cc6f402</t>
+          <t>https://jobs.lever.co/ciandt/f48d9db7-83e3-48df-a494-1c1ed1d99c91</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7009,7 +7009,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7051,12 +7051,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[JOB-19432] MASTER JAVA FULLSTACK ENGINEER, BRAZIL</t>
+          <t>[JOB-19652]MID-LEVEL FULL STACK DEVELOPER (NODEJS/REACT NATIVE)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/0be7df9a-7f90-4782-a188-020ecb10e7c7</t>
+          <t>https://jobs.lever.co/ciandt/a1ef0f3c-4e81-4382-a01e-cce73cc6f402</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7104,37 +7104,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ANALISTA DE DESENVOLVIMENTO COMERCIAL SÊNIOR</t>
+          <t>[JOB-19432] MASTER JAVA FULLSTACK ENGINEER, BRAZIL</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/8189378?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/0be7df9a-7f90-4782-a188-020ecb10e7c7</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7172,12 +7172,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -7187,17 +7187,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ASSISTENTE SUPORTE VENDAS</t>
+          <t>ANALISTA DE DESENVOLVIMENTO COMERCIAL SÊNIOR</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/8256778?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/8189378?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7240,12 +7240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dasa Tecnologia</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -7255,17 +7255,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CONSULTOR(A) DE REDES SR</t>
+          <t>ASSISTENTE SUPORTE VENDAS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://dasatecnologia.gupy.io/jobs/8423458?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/8256778?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TRABALHO HÍBRIDO</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>10 - Consultor</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7308,12 +7308,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dotz</t>
+          <t>Dasa Tecnologia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Benefícios</t>
+          <t>Saúde</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -7323,17 +7323,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR BACKEND SÊNIOR</t>
+          <t>CONSULTOR(A) DE REDES SR</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://dotz.gupy.io/jobs/8425702?jobBoardSource=gupy_public_page</t>
+          <t>https://dasatecnologia.gupy.io/jobs/8423458?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>TRABALHO HÍBRIDO</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7354,12 +7354,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>10 - Consultor</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7391,17 +7391,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ESTAGIÁRIO DE COMUNICAÇÃO &amp; MARCA</t>
+          <t>DESENVOLVEDOR BACKEND SÊNIOR</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://dotz.gupy.io/jobs/8426472?jobBoardSource=gupy_public_page</t>
+          <t>https://dotz.gupy.io/jobs/8425702?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7422,12 +7422,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7444,12 +7444,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DRUID Creative Gaming</t>
+          <t>Dotz</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Games</t>
+          <t>Benefícios</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7459,12 +7459,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE CAPTURA/ ATUAÇÃO</t>
+          <t>ESTAGIÁRIO DE COMUNICAÇÃO &amp; MARCA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174551?jobBoardSource=gupy_public_page</t>
+          <t>https://dotz.gupy.io/jobs/8426472?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PESSOA JURÍDICA</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7527,12 +7527,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>EDITOR DE VÍDEO DE GAMEPLAY (VERSIONAMENTO)</t>
+          <t>ASSISTENTE DE CAPTURA/ ATUAÇÃO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/7871593?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174551?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7595,12 +7595,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>EDITOR DE VÍDEO SÊNIOR</t>
+          <t>EDITOR DE VÍDEO DE GAMEPLAY (VERSIONAMENTO)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174437?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/7871593?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>JOGADOR PARA CAPTURA DE GAME</t>
+          <t>EDITOR DE VÍDEO SÊNIOR</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174620?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174437?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ROTEIRISTA DE GAMEPLAY TRAILER</t>
+          <t>JOGADOR PARA CAPTURA DE GAME</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174499?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174620?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7784,37 +7784,37 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>DRUID Creative Gaming</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Games</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MARKETING SENIOR MANAGER - GLOBAL BRAND</t>
+          <t>ROTEIRISTA DE GAMEPLAY TRAILER</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6050610003</t>
+          <t>https://druid.gupy.io/jobs/8174499?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SÃO PAULO OR CURITIBA</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>PESSOA JURÍDICA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -7825,12 +7825,12 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>16 - Gerente Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7852,37 +7852,37 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EMS</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - ÁREA DE MANIPULAÇÃO / PESAGEM</t>
+          <t>MARKETING SENIOR MANAGER - GLOBAL BRAND</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://ems.gupy.io/jobs/8407546?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6050610003</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>HORTOLÂNDIA - SP</t>
+          <t>SÃO PAULO OR CURITIBA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -7893,12 +7893,12 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>16 - Gerente Sênior</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7920,12 +7920,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Genial Investimentos</t>
+          <t>EMS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Corretora</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7935,22 +7935,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ANALISTA DE PLD (OPERAÇÕES DE CÂMBIO)</t>
+          <t>BANCO DE TALENTOS - ÁREA DE MANIPULAÇÃO / PESAGEM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://genial.gupy.io/jobs/8427684?jobBoardSource=gupy_public_page</t>
+          <t>https://ems.gupy.io/jobs/8407546?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>HORTOLÂNDIA - SP</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7988,12 +7988,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>Genial Investimentos</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Corretora</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -8003,17 +8003,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES | BRASÍLIA/DF</t>
+          <t>ANALISTA DE PLD (OPERAÇÕES DE CÂMBIO)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://grupoboticario.gupy.io/jobs/8310481?jobBoardSource=gupy_public_page</t>
+          <t>https://genial.gupy.io/jobs/8427684?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>BRASILIA - DF</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>Grupo Boticário</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8071,17 +8071,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ANALISTA DE CUSTOS SR (ITUPEVA-SP)</t>
+          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES | BRASÍLIA/DF</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8423380?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoboticario.gupy.io/jobs/8310481?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ITUPEVA - SP E HÍBRIDO</t>
+          <t>BRASILIA - DF</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8124,12 +8124,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>Grupo L'Occitane</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -8139,17 +8139,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE GOVERNANÇA DE TI SÊNIOR</t>
+          <t>ANALISTA DE CUSTOS SR (ITUPEVA-SP)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8337421?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8423380?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>ITUPEVA - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8207,17 +8207,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE LOGISTICA SR | INDMATRIZ</t>
+          <t>CIA HERING | ANALISTA DE GOVERNANÇA DE TI SÊNIOR</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8425569?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8337421?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>BLUMENAU</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8260,12 +8260,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -8275,17 +8275,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ANALISTA DE DADOS JUNIOR (ALTERYX)</t>
+          <t>CIA HERING | ANALISTA DE LOGISTICA SR | INDMATRIZ</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8427362?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8425569?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>BLUMENAU</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8301,12 +8301,12 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8328,12 +8328,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LOUD</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Games</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -8343,22 +8343,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ANALISTA DE CONTEÚDO PLENO</t>
+          <t>ANALISTA DE DADOS JUNIOR (ALTERYX)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://loud.gupy.io/jobs/8426675?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8427362?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PESSOA JURÍDICA</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -8369,12 +8369,12 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8396,12 +8396,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Meliuz</t>
+          <t>LOUD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Recompensas</t>
+          <t>Games</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -8411,22 +8411,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PESSOA ENGENHEIRA DE DADOS PLENO (VAGA REMOTA)</t>
+          <t>ANALISTA DE CONTEÚDO PLENO</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://meliuz.gupy.io/jobs/8054637?jobBoardSource=gupy_public_page</t>
+          <t>https://loud.gupy.io/jobs/8426675?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PESSOA JURÍDICA</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -8437,7 +8437,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8464,12 +8464,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PagSeguro</t>
+          <t>Meliuz</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Recompensas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -8479,17 +8479,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ANALISTA DE OPERAÇÕES JR</t>
+          <t>PESSOA ENGENHEIRA DE DADOS PLENO (VAGA REMOTA)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://pagseguro.gupy.io/jobs/8361476?jobBoardSource=gupy_public_page</t>
+          <t>https://meliuz.gupy.io/jobs/8054637?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8505,17 +8505,17 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -8532,37 +8532,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>PagSeguro</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Grupo Quintoandar | Analista de Treinamento</t>
+          <t>ANALISTA DE OPERAÇÕES JR</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/FD886E9773</t>
+          <t>https://pagseguro.gupy.io/jobs/8361476?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8573,12 +8573,12 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8615,22 +8615,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Gerente de Performance Comercial</t>
+          <t>Grupo Quintoandar | Analista de Treinamento</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/42B3F3C149</t>
+          <t>https://apply.workable.com/quintoandar/j/FD886E9773</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -8641,12 +8641,12 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8683,22 +8683,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista De Riscos Sênior</t>
+          <t>Grupo QuintoAndar | Gerente de Performance Comercial</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/5FAF199176</t>
+          <t>https://apply.workable.com/quintoandar/j/42B3F3C149</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8751,12 +8751,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista de Controles Internos Sênior</t>
+          <t>Grupo QuintoAndar | Analista De Riscos Sênior</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/08CFE628CE</t>
+          <t>https://apply.workable.com/quintoandar/j/5FAF199176</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8804,37 +8804,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>QUOD</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Birô de Crédito</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ESPECIALISTA DATA SCIENCE</t>
+          <t>Grupo QuintoAndar | Analista de Controles Internos Sênior</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://vempraquod.gupy.io/jobs/8205317?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/quintoandar/j/08CFE628CE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8845,17 +8845,17 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8872,12 +8872,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>QUOD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Birô de Crédito</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8887,17 +8887,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATENDENDENTE DE LOJA - LINS</t>
+          <t>ESPECIALISTA DATA SCIENCE</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8375633?jobBoardSource=gupy_public_page</t>
+          <t>https://vempraquod.gupy.io/jobs/8205317?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>LINS - SP</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8913,17 +8913,17 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8955,17 +8955,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ATENDENTE DE LOJA - CARREFOUR PINHEIROS (LOJA EDUCADORA)</t>
+          <t xml:space="preserve"> ATENDENDENTE DE LOJA - LINS</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8373872?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8375633?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>LINS - SP</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9023,17 +9023,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
+          <t>ATENDENTE DE LOJA - CARREFOUR PINHEIROS (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415569?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8373872?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9096,7 +9096,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415302?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8415569?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9144,37 +9144,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>XP Inc</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>GOIÂNIA - XP FUTURE | TRANSIÇÃO DE CARREIRA</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7800113002</t>
+          <t>https://swift.gupy.io/jobs/8415302?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>GOIÂNIA</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -9212,7 +9212,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Banco ABC</t>
+          <t>XP Inc</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9222,32 +9222,32 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL CORPORATE - CAMPINAS</t>
+          <t>GOIÂNIA - XP FUTURE | TRANSIÇÃO DE CARREIRA</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://abcbrasil.gupy.io/jobs/8421703?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7800113002</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CAMPINAS - SP</t>
+          <t>GOIÂNIA</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9280,7 +9280,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9295,17 +9295,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>AGENTE DE PROSPECÇÃO DE CLIENTES (AUTOMOTIVO)</t>
+          <t>ASSISTENTE COMERCIAL CORPORATE - CAMPINAS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8342482?jobBoardSource=gupy_public_page</t>
+          <t>https://abcbrasil.gupy.io/jobs/8421703?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
+          <t>CAMPINAS - SP</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -9348,37 +9348,37 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[JOB - 18826] MID LEVEL DATA ANALYST, BRAZIL</t>
+          <t>AGENTE DE PROSPECÇÃO DE CLIENTES (AUTOMOTIVO)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/aafc4bdf-4358-4ff9-8aff-d12516227ef1</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8342482?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -9389,17 +9389,17 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9416,37 +9416,37 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Agi</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO LUÍS/MA - RUA GRANDE (PRESENCIAL)</t>
+          <t>[JOB - 18826] MID LEVEL DATA ANALYST, BRAZIL</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8200418?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/aafc4bdf-4358-4ff9-8aff-d12516227ef1</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>SÃO LUÍS - MA</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -9457,17 +9457,17 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ambev</t>
+          <t>Agi</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -9499,17 +9499,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO I (CDD BOM JESUS DA LAPA - BA)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO LUÍS/MA - RUA GRANDE (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://ambev.gupy.io/jobs/8322568?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8200418?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>BOM JESUS DA LAPA - BA</t>
+          <t>SÃO LUÍS - MA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9525,12 +9525,12 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9552,12 +9552,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>Ambev</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -9567,17 +9567,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ANALISTA DE RECURSOS HUMANOS (VAGA AFIRMATIVA EXCLUSIVA PARA MULHERES NEGRAS 50+)</t>
+          <t>ANALISTA FINANCEIRO I (CDD BOM JESUS DA LAPA - BA)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8419290?jobBoardSource=gupy_public_page</t>
+          <t>https://ambev.gupy.io/jobs/8322568?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BOM JESUS DA LAPA - BA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9593,12 +9593,12 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9620,37 +9620,37 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ANALISTA DE INOVAÇÃO DE CRÉDITO PLENO</t>
+          <t>ANALISTA DE RECURSOS HUMANOS (VAGA AFIRMATIVA EXCLUSIVA PARA MULHERES NEGRAS 50+)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/66365d79-18c0-4a82-8887-b4ec00d110da</t>
+          <t>https://anbima.gupy.io/jobs/8419290?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -9661,12 +9661,12 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO EM RISCO CRÉDITO VAREJO</t>
+          <t>ANALISTA DE INOVAÇÃO DE CRÉDITO PLENO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/c40bfba4-1cc8-4202-ac0f-98bc391744c8</t>
+          <t>https://jobs.lever.co/bv/66365d79-18c0-4a82-8887-b4ec00d110da</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9771,12 +9771,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ANALISTA SÊNIOR EM RISCO CRÉDITO VAREJO</t>
+          <t>ANALISTA PLENO EM RISCO CRÉDITO VAREJO</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/bd59854e-e672-4d60-bdc2-1dd7f7267279</t>
+          <t>https://jobs.lever.co/bv/c40bfba4-1cc8-4202-ac0f-98bc391744c8</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9824,7 +9824,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9834,27 +9834,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>AJUDANTE DE OFICINA</t>
+          <t>ANALISTA SÊNIOR EM RISCO CRÉDITO VAREJO</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8349944?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/bd59854e-e672-4d60-bdc2-1dd7f7267279</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CARUARU - PE</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9892,12 +9892,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Brasilprev</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -9907,17 +9907,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE A OPERAÇÕES E PRODUÇÃO JUNIOR</t>
+          <t>AJUDANTE DE OFICINA</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://brasilprev.gupy.io/jobs/8352526?jobBoardSource=gupy_public_page</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8349944?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CARUARU - PE</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -9960,12 +9960,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cacau Show</t>
+          <t>Brasilprev</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -9975,17 +9975,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ANALISTA CONTABIL PL</t>
+          <t>ANALISTA DE SUPORTE A OPERAÇÕES E PRODUÇÃO JUNIOR</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://cacaushow.gupy.io/jobs/8164414?jobBoardSource=gupy_public_page</t>
+          <t>https://brasilprev.gupy.io/jobs/8352526?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ITAPEVI - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10028,7 +10028,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Centauro</t>
+          <t>Cacau Show</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10043,17 +10043,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ESTOQUE - BOULEVARD SHOPPING BA</t>
+          <t>ANALISTA CONTABIL PL</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://centaurotalentos.gupy.io/jobs/8418667?jobBoardSource=gupy_public_page</t>
+          <t>https://cacaushow.gupy.io/jobs/8164414?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA - BA</t>
+          <t>ITAPEVI - SP</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10096,37 +10096,37 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Centauro</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>TECHNICAL SOLUTION ARCHITECT</t>
+          <t>ASSISTENTE DE ESTOQUE - BOULEVARD SHOPPING BA</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/083b51fa-ddca-45a7-b080-823f19e43162</t>
+          <t>https://centaurotalentos.gupy.io/jobs/8418667?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>FEIRA DE SANTANA - BA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>MELBOURNE / SYDNEY</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -10142,7 +10142,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10179,12 +10179,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[JOB-19688] TECH LEAD, MALVERN, PA</t>
+          <t>TECHNICAL SOLUTION ARCHITECT</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/7d0ea81b-52a8-4cdf-86ed-122bf9a08433</t>
+          <t>https://jobs.lever.co/ciandt/083b51fa-ddca-45a7-b080-823f19e43162</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>PENNSYLVANIA, PA</t>
+          <t>MELBOURNE / SYDNEY</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>12 - Líder</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10247,12 +10247,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[JOB-19689] BUSINESS ANALYST, MALVERN, PA</t>
+          <t>[JOB-19688] TECH LEAD, MALVERN, PA</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/9ffd5a3c-dca3-4688-a790-b3a12d51381e</t>
+          <t>https://jobs.lever.co/ciandt/7d0ea81b-52a8-4cdf-86ed-122bf9a08433</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>12 - Líder</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10315,22 +10315,22 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR DEVOPS, BRASIL</t>
+          <t>[JOB-19689] BUSINESS ANALYST, MALVERN, PA</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/cf11c6b2-92bc-432a-908f-123d93ebc1d9</t>
+          <t>https://jobs.lever.co/ciandt/9ffd5a3c-dca3-4688-a790-b3a12d51381e</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PENNSYLVANIA, PA</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -10346,12 +10346,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR DEVOPS, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR DEVOPS, BRASIL</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/4c09bdc7-7437-49e5-b6ac-ab4a89b64732</t>
+          <t>https://jobs.lever.co/ciandt/cf11c6b2-92bc-432a-908f-123d93ebc1d9</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -10451,12 +10451,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, BRASIL</t>
+          <t>[JOB-19691] MID/SENIOR DEVOPS, COLOMBIA</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e342223f-03ca-49c7-83f2-ddba29c75c16</t>
+          <t>https://jobs.lever.co/ciandt/4c09bdc7-7437-49e5-b6ac-ab4a89b64732</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -10519,12 +10519,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, BRASIL</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/73f260bc-ff99-45ea-abd9-d758a034b7db</t>
+          <t>https://jobs.lever.co/ciandt/e342223f-03ca-49c7-83f2-ddba29c75c16</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -10587,12 +10587,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, BRASIL</t>
+          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, COLOMBIA</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/541993ea-be44-4d73-9625-42e8261581ee</t>
+          <t>https://jobs.lever.co/ciandt/73f260bc-ff99-45ea-abd9-d758a034b7db</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10655,12 +10655,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, BRASIL</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/07d1c561-d3a8-4777-a2ba-3fa741a81125</t>
+          <t>https://jobs.lever.co/ciandt/541993ea-be44-4d73-9625-42e8261581ee</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -10723,12 +10723,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[JOB-19675] SÊNIOR DATA DEVELOPER</t>
+          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, COLOMBIA</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/629fcac7-b41c-4468-8be2-1e0bd4d51d2a</t>
+          <t>https://jobs.lever.co/ciandt/07d1c561-d3a8-4777-a2ba-3fa741a81125</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -10749,7 +10749,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[ JOB - 19662] DATA ARCHITECT</t>
+          <t>[JOB-19675] SÊNIOR DATA DEVELOPER</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/d3eb234f-ec82-450b-b210-580cc7761820</t>
+          <t>https://jobs.lever.co/ciandt/629fcac7-b41c-4468-8be2-1e0bd4d51d2a</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>BRAZIL / CAMPINAS, SP</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[JOB-18621] MID-LEVEL FLUTTER DEVELOPER, BRAZIL</t>
+          <t>[ JOB - 19662] DATA ARCHITECT</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e18bc4d3-ff52-4aac-a43b-af99b1179bd0</t>
+          <t>https://jobs.lever.co/ciandt/d3eb234f-ec82-450b-b210-580cc7761820</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>BRAZIL / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -10885,12 +10885,12 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -10927,12 +10927,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[JOB-19657] SÊNIOR IOS/SWIFT DEVELOPER, BRAZIL</t>
+          <t>[JOB-18621] MID-LEVEL FLUTTER DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a2a451a0-0210-4e6f-9fa8-32f2e3d01527</t>
+          <t>https://jobs.lever.co/ciandt/e18bc4d3-ff52-4aac-a43b-af99b1179bd0</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10995,12 +10995,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[JOB-19664] SENIOR DEVELOPER BACKEND (GOLANG), BRASIL</t>
+          <t>[JOB-19657] SÊNIOR IOS/SWIFT DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/28e7007d-6e4d-485d-800d-5231e5af4b2f</t>
+          <t>https://jobs.lever.co/ciandt/a2a451a0-0210-4e6f-9fa8-32f2e3d01527</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -11048,37 +11048,37 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ClearSale</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ANALISTA DE FATURAMENTO PLENO INTERNACIONAL</t>
+          <t>[JOB-19664] SENIOR DEVELOPER BACKEND (GOLANG), BRASIL</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://clearsale.gupy.io/jobs/8328931?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/28e7007d-6e4d-485d-800d-5231e5af4b2f</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11116,12 +11116,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Daycoval DayCambio</t>
+          <t>ClearSale</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -11131,17 +11131,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ATENDENTE DE CÂMBIO JUNIOR</t>
+          <t>ANALISTA DE FATURAMENTO PLENO INTERNACIONAL</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419650?jobBoardSource=gupy_public_page</t>
+          <t>https://clearsale.gupy.io/jobs/8328931?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -11162,12 +11162,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11204,7 +11204,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419619?jobBoardSource=gupy_public_page</t>
+          <t>https://daycambio.gupy.io/jobs/8419650?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -11267,17 +11267,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PORTADOR JUNIOR</t>
+          <t>ATENDENTE DE CÂMBIO JUNIOR</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419662?jobBoardSource=gupy_public_page</t>
+          <t>https://daycambio.gupy.io/jobs/8419619?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>BRASÍLIA - DF</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -11320,37 +11320,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>Daycoval DayCambio</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BANKING INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>PORTADOR JUNIOR</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317848003</t>
+          <t>https://daycambio.gupy.io/jobs/8419662?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">CURITIBA | PRESENCIAL </t>
+          <t>BRASÍLIA - DF</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -11403,12 +11403,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>BUSINESS OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>BANKING INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317847003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317848003</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11471,12 +11471,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>COMMERCIAL OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>BUSINESS OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317839003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317847003</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -11539,12 +11539,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>FINANCE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>COMMERCIAL OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317830003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317839003</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11607,12 +11607,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>INFORMATION SECURITY INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>FINANCE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317559003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317830003</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11675,12 +11675,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LEGAL INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>INFORMATION SECURITY INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317948003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317559003</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11743,12 +11743,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PEOPLE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>LEGAL INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317947003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317948003</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11811,17 +11811,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>TREASURY SR ANALYST</t>
+          <t>PEOPLE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6306496003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317947003</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>CURITIBA OR SÃO PAULO</t>
+          <t xml:space="preserve">CURITIBA | PRESENCIAL </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -11864,37 +11864,37 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ANALISTA DE COMPRAS III</t>
+          <t>TREASURY SR ANALYST</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8415952?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6306496003</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CATAGUASES - MG</t>
+          <t>CURITIBA OR SÃO PAULO</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -11932,12 +11932,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GOL Linhas Aéreas</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -11947,17 +11947,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ANALISTA DE DADOS</t>
+          <t>ANALISTA DE COMPRAS III</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://golcarreiras.gupy.io/jobs/8185156?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8415952?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CATAGUASES - MG</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11973,12 +11973,12 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -12000,12 +12000,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>GOL Linhas Aéreas</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -12015,12 +12015,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ANALISTA DE CRM PL</t>
+          <t>ANALISTA DE DADOS</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8418836?jobBoardSource=gupy_public_page</t>
+          <t>https://golcarreiras.gupy.io/jobs/8185156?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12068,27 +12068,27 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>Grupo L'Occitane</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cosméticos</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>Gupy</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Recrutamento</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Gupy</t>
-        </is>
-      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PESSOA CONSULTORA DE CUSTOMER SUCCESS GRANDES CONTAS</t>
+          <t>ANALISTA DE CRM PL</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://vempra.gupy.io/jobs/8403156?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8418836?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -12109,12 +12109,12 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>10 - Consultor</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://vempra.gupy.io/jobs/8304621?jobBoardSource=gupy_public_page</t>
+          <t>https://vempra.gupy.io/jobs/8403156?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -12204,12 +12204,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Recrutamento</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -12219,17 +12219,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>CIA HERING | ABASTECEDOR COST INTERNA - 1º TURNO | IND - GOIANÉSIA</t>
+          <t>PESSOA CONSULTORA DE CUSTOMER SUCCESS GRANDES CONTAS</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8412319?jobBoardSource=gupy_public_page</t>
+          <t>https://vempra.gupy.io/jobs/8304621?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>GOIANIRA - GO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>10 - Consultor</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12272,12 +12272,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -12287,17 +12287,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ANALISTA DE ENGENHARIA ANALYTICS PLENO - EXCLUSIVO PARA PROFISSIONAIS COM DEFICIÊNCIA</t>
+          <t>CIA HERING | ABASTECEDOR COST INTERNA - 1º TURNO | IND - GOIANÉSIA</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://vemproitau.gupy.io/jobs/7782767?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8412319?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>GOIANIRA - GO</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -12313,12 +12313,12 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12340,12 +12340,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -12355,17 +12355,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>AUDIT ASSOCIATE ASSURANCE</t>
+          <t>ANALISTA DE ENGENHARIA ANALYTICS PLENO - EXCLUSIVO PARA PROFISSIONAIS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8416375?jobBoardSource=gupy_public_page</t>
+          <t>https://vemproitau.gupy.io/jobs/7782767?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -12381,12 +12381,12 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8414082?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8416375?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -12476,12 +12476,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>McDonalds (Corporativo)</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -12491,22 +12491,22 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>APRENDIZ AUXILIAR ADMINISTRATIVO - RH</t>
+          <t>AUDIT ASSOCIATE ASSURANCE</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://corporativomc.gupy.io/jobs/8395386?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8414082?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -12517,12 +12517,12 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12544,7 +12544,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>McDonalds (Corporativo)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -12559,17 +12559,17 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
+          <t>APRENDIZ AUXILIAR ADMINISTRATIVO - RH</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8414135?jobBoardSource=gupy_public_page</t>
+          <t>https://corporativomc.gupy.io/jobs/8395386?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -12585,12 +12585,12 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8415786?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8414135?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8414137?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8415786?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12748,12 +12748,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Meliuz</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Recompensas</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -12763,22 +12763,22 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ESTÁGIO EM OPERAÇÕES - MISSION CONTROL</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://meliuz.gupy.io/jobs/8373625?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8414137?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -12794,12 +12794,12 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12816,37 +12816,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>Meliuz</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Recompensas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Quinto Andar I Fintech Business Specialist</t>
+          <t>ESTÁGIO EM OPERAÇÕES - MISSION CONTROL</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/D3EAEA54BD</t>
+          <t>https://meliuz.gupy.io/jobs/8373625?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -12862,12 +12862,12 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -12899,22 +12899,22 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista de Growth</t>
+          <t>Quinto Andar I Fintech Business Specialist</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/359C5629E4</t>
+          <t>https://apply.workable.com/quintoandar/j/D3EAEA54BD</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -12967,17 +12967,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Mid-level Tech Recruiter</t>
+          <t>Grupo QuintoAndar | Analista de Growth</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/3B4B1F526C</t>
+          <t>https://apply.workable.com/quintoandar/j/359C5629E4</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Buenos Aires / Argentina</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -13020,37 +13020,37 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>QUOD</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Birô de Crédito</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ANALISTA DE MODELAGEM SR</t>
+          <t>Grupo QuintoAndar | Mid-level Tech Recruiter</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://vempraquod.gupy.io/jobs/8354872?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/quintoandar/j/3B4B1F526C</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
+          <t>Buenos Aires / Argentina</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>TRABALHO REMOTO</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -13066,12 +13066,12 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -13088,37 +13088,37 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RecargaPay</t>
+          <t>QUOD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Birô de Crédito</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist</t>
+          <t>ANALISTA DE MODELAGEM SR</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/recargapay/j/F9A88ADCEB</t>
+          <t>https://vempraquod.gupy.io/jobs/8354872?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>None / Brazil</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -13129,17 +13129,17 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -13156,37 +13156,37 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Safra</t>
+          <t>RecargaPay</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ANALISTA DE PLD SR</t>
+          <t>Business Intelligence Specialist</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://venhasersafra.gupy.io/jobs/8413679?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/recargapay/j/F9A88ADCEB</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>None / Brazil</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -13197,12 +13197,12 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -13224,12 +13224,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Safra</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -13239,12 +13239,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALTO DA BOA VISTA (LOJA EDUCADORA)</t>
+          <t>ANALISTA DE PLD SR</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8391520?jobBoardSource=gupy_public_page</t>
+          <t>https://venhasersafra.gupy.io/jobs/8413679?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">

--- a/assets/data/xlsx/open_jobs.xlsx
+++ b/assets/data/xlsx/open_jobs.xlsx
@@ -508,12 +508,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,27 +523,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ALMOXARIFE</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8295372?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8414135?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BARRA DO GARÇAS - MT</t>
+          <t>RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -576,53 +576,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Globo</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Televisão</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGÊNCIA E PERFORMANCE SÊNIOR | ESTÚDIOS</t>
+          <t>Grupo QuintoAndar | KAM Middle</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://globo.gupy.io/jobs/8198358?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/quintoandar/j/B58ECCDAD8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
+          <t>Lima / Peru</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -644,12 +644,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Globo</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Televisão</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -659,17 +659,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING DE PRODUTO PLENO | CICLO DE VIDA</t>
+          <t>ALMOXARIFE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://globo.gupy.io/jobs/8380168?jobBoardSource=gupy_public_page</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8295372?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BARRA DO GARÇAS - MT</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -685,12 +685,12 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -712,12 +712,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>Globo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Televisão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -727,22 +727,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
+          <t>ANALISTA DE INTELIGÊNCIA E PERFORMANCE SÊNIOR | ESTÚDIOS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8371891?jobBoardSource=gupy_public_page</t>
+          <t>https://globo.gupy.io/jobs/8198358?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ</t>
+          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -753,12 +753,12 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -780,12 +780,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>Globo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Televisão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -795,22 +795,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
+          <t>ANALISTA DE MARKETING DE PRODUTO PLENO | CICLO DE VIDA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8371894?jobBoardSource=gupy_public_page</t>
+          <t>https://globo.gupy.io/jobs/8380168?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -821,12 +821,12 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -848,12 +848,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -863,22 +863,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALTO DA BOA VISTA (LOJA EDUCADORA)</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8374780?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8371891?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -916,12 +916,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Banco Daycoval</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ANALISTA DE INVESTIMENTOS SÊNIOR - COMUNICAÇÃO E ESTRATÉGIA</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALTO DA BOA VISTA (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://bancodaycoval.gupy.io/jobs/8369058?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8374780?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -984,12 +984,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>Banco Daycoval</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -999,17 +999,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANALISTA SRE SÊNIOR</t>
+          <t>ANALISTA DE INVESTIMENTOS SÊNIOR - COMUNICAÇÃO E ESTRATÉGIA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/8258627?jobBoardSource=gupy_public_page</t>
+          <t>https://bancodaycoval.gupy.io/jobs/8369058?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1067,22 +1067,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - OPERAÇÕES (CCO)</t>
+          <t>ANALISTA SRE SÊNIOR</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/6708625?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/8258627?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1120,12 +1120,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Digio</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERENTE DE PRODUTOS CONSIGNADO</t>
+          <t>BANCO DE TALENTOS - OPERAÇÕES (CCO)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://digio.gupy.io/jobs/8200092?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/6708625?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1188,12 +1188,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Embraer</t>
+          <t>Digio</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS CORPORATIVO- EXCLUSIVO PCD</t>
+          <t>GERENTE DE PRODUTOS CONSIGNADO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://embraer.gupy.io/jobs/7499337?jobBoardSource=gupy_public_page</t>
+          <t>https://digio.gupy.io/jobs/8200092?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GAVIÃO PEIXOTO - SP</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1256,12 +1256,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>Embraer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE GESTÃO III - QUALIDADE</t>
+          <t>BANCO DE TALENTOS CORPORATIVO- EXCLUSIVO PCD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8422458?jobBoardSource=gupy_public_page</t>
+          <t>https://embraer.gupy.io/jobs/7499337?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CUIABÁ - MT</t>
+          <t>GAVIÃO PEIXOTO - SP</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANALISTA FISCAL PL (SÃO PAULO - SP)</t>
+          <t>ANALISTA DE SUPORTE GESTÃO III - QUALIDADE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8311041?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8422458?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CUIABÁ - MT</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1392,12 +1392,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Grupo L'Occitane</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING E PRODUTO AUTOMOTIVO SÊNIOR</t>
+          <t>ANALISTA FISCAL PL (SÃO PAULO - SP)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://porto.gupy.io/jobs/8352185?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8311041?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1433,12 +1433,12 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raizen</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANALISTA CONTABIL SÊNIOR</t>
+          <t>ANALISTA DE MARKETING E PRODUTO AUTOMOTIVO SÊNIOR</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8281027?jobBoardSource=gupy_public_page</t>
+          <t>https://porto.gupy.io/jobs/8352185?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1501,7 +1501,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ANALISTA DE DESENVOLVIMENTO DE FORNECEDORES JÚNIOR - FOCO EM INSPEÇÃO DE ALOJAMENTOS (SSMA)</t>
+          <t>ANALISTA CONTABIL SÊNIOR</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/7914346?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8281027?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8370440?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/7914346?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP</t>
+          <t>PIRACICABA - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1679,17 +1679,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ANALISTA DE GESTÃO DE RISCOS E CONTROLES INTERNOS PLENO</t>
+          <t>ANALISTA DE DESENVOLVIMENTO DE FORNECEDORES JÚNIOR - FOCO EM INSPEÇÃO DE ALOJAMENTOS (SSMA)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8140948?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8370440?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>PIRACICABA - SP</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ANALISTA DE MARKETING PLENO (GROWTH B2C)</t>
+          <t>ANALISTA DE GESTÃO DE RISCOS E CONTROLES INTERNOS PLENO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://genteraizen.gupy.io/jobs/8317422?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8140948?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1773,7 +1773,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1800,12 +1800,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sicredi</t>
+          <t>Raizen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cooperativa</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1815,22 +1815,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0228 - JOVEM APRENDIZ- BANCO DE TALENTOS- PASSO FUNDO RS</t>
+          <t>ANALISTA DE MARKETING PLENO (GROWTH B2C)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7685309?jobBoardSource=gupy_public_page</t>
+          <t>https://genteraizen.gupy.io/jobs/8317422?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PASSO FUNDO - RS</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1841,12 +1841,12 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1883,22 +1883,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0258 GERENTE DE NEGÓCIOS - PÚBLICO AGRO - AGÊNCIA DE LIBERATO SALZANO/RS - SICREDI REGIÃO DA PRODUÇÃO/RS/SC/MG</t>
+          <t>0228 - JOVEM APRENDIZ- BANCO DE TALENTOS- PASSO FUNDO RS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/8435407?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7685309?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LIBERATO SALZANO - RS</t>
+          <t>PASSO FUNDO - RS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0307 - ASSISTENTE DE NEGÓCIOS - SÃO BORJA (RS)</t>
+          <t>0258 GERENTE DE NEGÓCIOS - PÚBLICO AGRO - AGÊNCIA DE LIBERATO SALZANO/RS - SICREDI REGIÃO DA PRODUÇÃO/RS/SC/MG</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7532381?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/8435407?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SÃO BORJA - RS</t>
+          <t>LIBERATO SALZANO - RS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0307 - GERENTE DE NEGÓCIOS AGRO - SÃO BORJA (RS)</t>
+          <t>0307 - ASSISTENTE DE NEGÓCIOS - SÃO BORJA (RS)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://sicredi.gupy.io/jobs/7530795?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7532381?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2072,12 +2072,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Sicredi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Cooperativa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2087,17 +2087,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVIMENTO COMERCIAL SÊNIOR | EXCLUSIVA PARA PROFISSIONAIS PRETOS OU PARDOS</t>
+          <t>0307 - GERENTE DE NEGÓCIOS AGRO - SÃO BORJA (RS)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8350808?jobBoardSource=gupy_public_page</t>
+          <t>https://sicredi.gupy.io/jobs/7530795?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO BORJA - RS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS ERP SÊNIOR</t>
+          <t>ANALISTA DESENVOLVIMENTO COMERCIAL SÊNIOR | EXCLUSIVA PARA PROFISSIONAIS PRETOS OU PARDOS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8143368?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8350808?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2208,12 +2208,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alura</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ANALISTA DE GROWTH E LANÇAMENTOS DIGITAIS</t>
+          <t>ANALISTA DE SISTEMAS ERP SÊNIOR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8423571?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8143368?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ESTÁGIO EM GROWTH E LANÇAMENTO DE PRODUTO</t>
+          <t>ANALISTA DE GROWTH E LANÇAMENTOS DIGITAIS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8423249?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8423571?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2344,12 +2344,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Banco ABC</t>
+          <t>Alura</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Educação</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2359,22 +2359,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGÊNCIA DE PERFORMANCE SR - PROCESSOS</t>
+          <t>ESTÁGIO EM GROWTH E LANÇAMENTO DE PRODUTO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://abcbrasil.gupy.io/jobs/8436418?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8423249?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2385,17 +2385,17 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2422,27 +2422,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS PLENO EM CRÉDITO</t>
+          <t>ANALISTA DE INTELIGÊNCIA DE PERFORMANCE SR - PROCESSOS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/81449e68-5022-4193-ac77-31c76b0eefdc</t>
+          <t>https://abcbrasil.gupy.io/jobs/8436418?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO DE RISCOS DE CRÉDITO ATACADO</t>
+          <t>CIENTISTA DE DADOS PLENO EM CRÉDITO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/98bd2aed-124b-49c6-b47e-52034e468c02</t>
+          <t>https://jobs.lever.co/bv/81449e68-5022-4193-ac77-31c76b0eefdc</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Banco Sofisa</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2558,27 +2558,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ANALISTA DE OPERAÇÕES SR - TEMPORÁRIA</t>
+          <t>ANALISTA PLENO DE RISCOS DE CRÉDITO ATACADO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8415353?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/98bd2aed-124b-49c6-b47e-52034e468c02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
@@ -2631,22 +2631,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[BANCO DE TALENTOS] GERENTE COMERCIAL MIDDLE BAURU</t>
+          <t>ANALISTA DE OPERAÇÕES SR - TEMPORÁRIA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8418537?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8415353?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BMG</t>
+          <t>Banco Sofisa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2699,22 +2699,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE TI</t>
+          <t>[BANCO DE TALENTOS] GERENTE COMERCIAL MIDDLE BAURU</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8111600?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8418537?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2752,12 +2752,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C&amp;A</t>
+          <t>BMG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2767,17 +2767,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ANALISTA CONTÁBIL SÊNIOR | CONSOLIDAÇÃO E REPORTE</t>
+          <t>COORDENADOR(A) DE TI</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8439772?jobBoardSource=gupy_public_page</t>
+          <t>https://bmg.gupy.io/jobs/8111600?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2835,12 +2835,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ANALISTA DE COMUNICAÇÃO INTERNA SÊNIOR - TEMPORÁRIO</t>
+          <t>ANALISTA CONTÁBIL SÊNIOR | CONSOLIDAÇÃO E REPORTE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8435919?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8439772?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TEMPORÁRIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Centauro</t>
+          <t>C&amp;A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>APRENDIZ DE LOJA - SHOPPING BOUGAINVILLE</t>
+          <t>ANALISTA DE COMUNICAÇÃO INTERNA SÊNIOR - TEMPORÁRIO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://centaurotalentos.gupy.io/jobs/8123270?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8435919?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GOIÂNIA - GO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>TEMPORÁRIO</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2949,44 +2949,44 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Centauro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[JOB-19518] DESENVOLVEDOR SENIOR FULLSTACK (ANGULAR/REACT, JAVA/NESTJS+MFE), CAMPINAS, BRASIL (PRESENCIAL)</t>
+          <t>APRENDIZ DE LOJA - SHOPPING BOUGAINVILLE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/1ad42303-37a7-4d14-b055-c0a7e28ccfd0</t>
+          <t>https://centaurotalentos.gupy.io/jobs/8123270?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ON-SITE — </t>
+          <t>GOIÂNIA - GO</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CAMPINAS, SP / BRAZIL</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[JOB-19532] DESENVOLVEDOR SENIOR FRONTEND(ANGULAR+MFE+AEM) , CAMPINAS, BRASIL (PRESENCIAL)</t>
+          <t>[JOB-19518] DESENVOLVEDOR SENIOR FULLSTACK (ANGULAR/REACT, JAVA/NESTJS+MFE), CAMPINAS, BRASIL (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/19df79b9-13c6-4696-b5b6-9b23e6dbebb8</t>
+          <t>https://jobs.lever.co/ciandt/1ad42303-37a7-4d14-b055-c0a7e28ccfd0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[JOB - 19731] JUNIOR FRONTEND DEVELOPER, COLOMBIA</t>
+          <t>[JOB-19532] DESENVOLVEDOR SENIOR FRONTEND(ANGULAR+MFE+AEM) , CAMPINAS, BRASIL (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a6a91c4e-66eb-43dd-bcc3-d1f223b5a5c5</t>
+          <t>https://jobs.lever.co/ciandt/19df79b9-13c6-4696-b5b6-9b23e6dbebb8</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">ON-SITE — </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>CAMPINAS, SP / BRAZIL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3175,12 +3175,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[JOB - 19733] MID FRONTEND DEVELOPER, COLOMBIA</t>
+          <t>[JOB - 19731] JUNIOR FRONTEND DEVELOPER, COLOMBIA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/daf0e157-aa26-4b1f-bdd0-999bd2ee0856</t>
+          <t>https://jobs.lever.co/ciandt/a6a91c4e-66eb-43dd-bcc3-d1f223b5a5c5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3243,12 +3243,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[JOB 19701] DATA ENGINEER, SUSTENTAÇÃO, MID LEVEL, BRASIL (COPY)</t>
+          <t>[JOB - 19733] MID FRONTEND DEVELOPER, COLOMBIA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/f426c920-d059-4c64-9114-1e29a20a176a</t>
+          <t>https://jobs.lever.co/ciandt/daf0e157-aa26-4b1f-bdd0-999bd2ee0856</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3269,12 +3269,12 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[JOB-19717 ] MID LEVEL DEVELOPER BACK END (NODEJS/JAVA), BRAZIL</t>
+          <t>[JOB 19701] DATA ENGINEER, SUSTENTAÇÃO, MID LEVEL, BRASIL (COPY)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/d6925722-d984-4386-955c-561cdd8f6481</t>
+          <t>https://jobs.lever.co/ciandt/f426c920-d059-4c64-9114-1e29a20a176a</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3337,7 +3337,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[JOB- 19244] SENIOR AGILE COACH, BRAZIL</t>
+          <t>[JOB-19717 ] MID LEVEL DEVELOPER BACK END (NODEJS/JAVA), BRAZIL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a81001c1-4930-441b-88e1-890342f4029b</t>
+          <t>https://jobs.lever.co/ciandt/d6925722-d984-4386-955c-561cdd8f6481</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3432,37 +3432,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ANALISTA DE SEGURANCA EM PROJETOS SÊNIOR</t>
+          <t>[JOB- 19244] SENIOR AGILE COACH, BRAZIL</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/7724095?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/a81001c1-4930-441b-88e1-890342f4029b</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3500,12 +3500,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CVP (Caixa Vida e Previdência)</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3515,17 +3515,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS PL</t>
+          <t>ANALISTA DE SEGURANCA EM PROJETOS SÊNIOR</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/8393352?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/7724095?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3583,12 +3583,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS PL (EXCLUSIVA PARA PCD)</t>
+          <t>ANALISTA DE PRODUTOS PL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/8439522?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/8393352?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3636,12 +3636,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dasa Tecnologia</t>
+          <t>CVP (Caixa Vida e Previdência)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ANALISTA ANALYTICS III</t>
+          <t>ANALISTA DE PRODUTOS PL (EXCLUSIVA PARA PCD)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://dasatecnologia.gupy.io/jobs/8370059?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/8439522?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3677,12 +3677,12 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3704,12 +3704,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Daycoval DayCred</t>
+          <t>Dasa Tecnologia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Saúde</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3719,17 +3719,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL JUNIOR</t>
+          <t>ANALISTA ANALYTICS III</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://daycred.gupy.io/jobs/8376251?jobBoardSource=gupy_public_page</t>
+          <t>https://dasatecnologia.gupy.io/jobs/8370059?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE - MS</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3745,12 +3745,12 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3792,12 +3792,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://daycred.gupy.io/jobs/7897201?jobBoardSource=gupy_public_page</t>
+          <t>https://daycred.gupy.io/jobs/8376251?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>CAMPO GRANDE - MS</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3840,7 +3840,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Digio</t>
+          <t>Daycoval DayCred</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ESPECIALISTA DE PLANEJAMENTO COMERCIAL</t>
+          <t>ASSISTENTE COMERCIAL JUNIOR</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://digio.gupy.io/jobs/8355682?jobBoardSource=gupy_public_page</t>
+          <t>https://daycred.gupy.io/jobs/7897201?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3908,37 +3908,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>Digio</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FINANCE TRANSFORMATION ANALYST JR</t>
+          <t>ESPECIALISTA DE PLANEJAMENTO COMERCIAL</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6315312003</t>
+          <t>https://digio.gupy.io/jobs/8355682?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CURITIBA OR SÃO PAULO</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3976,37 +3976,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GPA</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FRENTISTA CAIXA (529902)</t>
+          <t>FINANCE TRANSFORMATION ANALYST JR</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://digitalgpa.gupy.io/jobs/8432804?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6315312003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>CURITIBA OR SÃO PAULO</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4044,12 +4044,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>GPA</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4059,17 +4059,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L TERESINA/PI</t>
+          <t>FRENTISTA CAIXA (529902)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://grupoboticario.gupy.io/jobs/8405578?jobBoardSource=gupy_public_page</t>
+          <t>https://digitalgpa.gupy.io/jobs/8432804?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FORTALEZA - CE</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4112,12 +4112,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Grupo Boticário</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4127,17 +4127,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ANALISTA DE INTELIGÊNCIA E PESQUISA DE MERCADO JUNIOR</t>
+          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L TERESINA/PI</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8178222?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoboticario.gupy.io/jobs/8405578?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>FORTALEZA - CE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4153,7 +4153,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4180,12 +4180,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4195,22 +4195,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(AGUA BRANCA - SAO PAULO/SP)</t>
+          <t>ANALISTA DE INTELIGÊNCIA E PESQUISA DE MERCADO JUNIOR</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8438305?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8178222?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4221,12 +4221,12 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4248,12 +4248,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PagSeguro</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROCESSOS JR (AUDITORIA)</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(AGUA BRANCA - SAO PAULO/SP)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://pagseguro.gupy.io/jobs/8010844?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8438305?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>SAO PAULO - SP</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paschoalotto</t>
+          <t>PagSeguro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gestão de Relacionamentos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4331,17 +4331,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ANALISTA DE DHO</t>
+          <t>ANALISTA DE PROCESSOS JR (AUDITORIA)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://paschoalotto.gupy.io/jobs/8437798?jobBoardSource=gupy_public_page</t>
+          <t>https://pagseguro.gupy.io/jobs/8010844?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>BAURU - SP</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Paschoalotto</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Gestão de Relacionamentos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ANALISTA DE INFORMAÇÕES GERENCIAS PLENO</t>
+          <t>ANALISTA DE DHO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://porto.gupy.io/jobs/8256963?jobBoardSource=gupy_public_page</t>
+          <t>https://paschoalotto.gupy.io/jobs/8437798?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>BAURU - SP</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4452,37 +4452,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Software Quality Analyst</t>
+          <t>ANALISTA DE INFORMAÇÕES GERENCIAS PLENO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/B5C33406E5</t>
+          <t>https://porto.gupy.io/jobs/8256963?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4520,12 +4520,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RecargaPay</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4535,17 +4535,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sr Fraud Prevention Manager</t>
+          <t>Grupo QuintoAndar | Software Quality Analyst</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/recargapay/j/1FE7778392</t>
+          <t>https://apply.workable.com/quintoandar/j/B5C33406E5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>None / Brazil</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sinch</t>
+          <t>RecargaPay</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4603,22 +4603,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lead System Engineer/Team Lead - System &amp; Operations (Mumbai)</t>
+          <t>Sr Fraud Prevention Manager</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/B462C95067</t>
+          <t>https://apply.workable.com/recargapay/j/1FE7778392</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mumbai / India</t>
+          <t>None / Brazil</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>12 - Líder</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4656,37 +4656,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Sinch</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
+          <t>Lead System Engineer/Team Lead - System &amp; Operations (Mumbai)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415508?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/sinch/j/B462C95067</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>Mumbai / India</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>12 - Líder</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4724,12 +4724,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4739,17 +4739,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ANALISTA CONTÁBIL SÊNIOR</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8129455?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8415508?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRODUTOS FINANCEIROS SR | SÃO PAULO</t>
+          <t>ANALISTA CONTÁBIL SÊNIOR</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8416551?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8129455?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4860,7 +4860,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vivo Digital</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4875,12 +4875,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ANALISTA DE SISTEMAS SÊNIOR</t>
+          <t>ANALISTA DE PRODUTOS FINANCEIROS SR | SÃO PAULO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vivodigital.gupy.io/jobs/8371091?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8416551?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4928,37 +4928,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>XP Inc</t>
+          <t>Vivo Digital</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PRODUCT DESIGN 2</t>
+          <t>ANALISTA DE SISTEMAS SÊNIOR</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7805055002</t>
+          <t>https://vivodigital.gupy.io/jobs/8371091?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRODUCT DESIGN 3</t>
+          <t>PRODUCT DESIGN 2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7805783002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7805055002</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5064,42 +5064,42 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>XP Inc</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>COORDENADORA DE CIBERSEGURANÇA E REDES (VAGA EXCLUSIVA AFIRMATIVA PARA MULHERES)</t>
+          <t>PRODUCT DESIGN 3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8290964?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7805783002</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5132,37 +5132,37 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GERENTE RELACIONAMENTO VEÍCULOS | IPIRANGA - SP</t>
+          <t>COORDENADORA DE CIBERSEGURANÇA E REDES (VAGA EXCLUSIVA AFIRMATIVA PARA MULHERES)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/da9cebc7-4d0d-4d91-aecc-1031767e1d6f</t>
+          <t>https://anbima.gupy.io/jobs/8290964?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ON-SITE — </t>
+          <t>RIO DE JANEIRO - RJ E HÍBRIDO</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5200,37 +5200,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS AFIRMATIVO PESSOAS COM DEFICIÊNCIA</t>
+          <t>GERENTE RELACIONAMENTO VEÍCULOS | IPIRANGA - SP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/7480512?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/da9cebc7-4d0d-4d91-aecc-1031767e1d6f</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t xml:space="preserve">ON-SITE — </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5268,12 +5268,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CVP (Caixa Vida e Previdência)</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5283,22 +5283,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ANALISTA DESENVOLVIMENTO DE SISTEMAS JR (EXCLUSIVA PARA PCD)</t>
+          <t>BANCO DE TALENTOS AFIRMATIVO PESSOAS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://caixavidaeprevidencia.gupy.io/jobs/7905691?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/7480512?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5336,12 +5336,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>CVP (Caixa Vida e Previdência)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5351,17 +5351,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ANALISTA DE CANAIS DIGITAIS II</t>
+          <t>ANALISTA DESENVOLVIMENTO DE SISTEMAS JR (EXCLUSIVA PARA PCD)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8353601?jobBoardSource=gupy_public_page</t>
+          <t>https://caixavidaeprevidencia.gupy.io/jobs/7905691?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>JOÃO PESSOA - PB</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5404,12 +5404,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GOL Linhas Aéreas</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5419,17 +5419,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO III - MODELAGEM FINANCEIRA</t>
+          <t>ANALISTA DE CANAIS DIGITAIS II</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://golcarreiras.gupy.io/jobs/8120778?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8353601?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>JOÃO PESSOA - PB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5445,12 +5445,12 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5472,12 +5472,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>GOL Linhas Aéreas</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5487,22 +5487,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(ALTO DOS PASSOS - JUIZ DE FORA/MG)</t>
+          <t>ANALISTA FINANCEIRO III - MODELAGEM FINANCEIRA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8433295?jobBoardSource=gupy_public_page</t>
+          <t>https://golcarreiras.gupy.io/jobs/8120778?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>JUIZ DE FORA - MG</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5513,12 +5513,12 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5540,37 +5540,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sinch</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Anti Fraud Engineer</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(ALTO DOS PASSOS - JUIZ DE FORA/MG)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/09AEDD0F99</t>
+          <t>https://restaurantemc.gupy.io/jobs/8433295?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Singapore / Singapore</t>
+          <t>JUIZ DE FORA - MG</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5623,17 +5623,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>System Engineer / Senior System Engineer - Mumbai</t>
+          <t>Anti Fraud Engineer</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/6650B6E681</t>
+          <t>https://apply.workable.com/sinch/j/09AEDD0F99</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mumbai / India</t>
+          <t>Singapore / Singapore</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5676,37 +5676,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Agi</t>
+          <t>Sinch</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - PIRACICABA/SP (PRESENCIAL)</t>
+          <t>System Engineer / Senior System Engineer - Mumbai</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8392522?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/sinch/j/6650B6E681</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PIRACICABA - SP</t>
+          <t>Mumbai / India</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5759,17 +5759,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO PAULO/SP - ITAQUERA (PRESENCIAL)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - PIRACICABA/SP (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8247499?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8392522?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>PIRACICABA - SP</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5827,17 +5827,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - VIAMÃO/RS (PRESENCIAL) AFIRMATIVA PARA PESSOAS COM DEFICIÊNCIA</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO PAULO/SP - ITAQUERA (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8348897?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8247499?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VIAMÃO - RS</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5895,22 +5895,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - SUPERVISOR/A DE VENDAS - SÃO PAULO/ABC (PRESENCIAL)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - VIAMÃO/RS (PRESENCIAL) AFIRMATIVA PARA PESSOAS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/6959213?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8348897?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>VIAMÃO - RS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>13 - Supervisor</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5948,12 +5948,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Alura</t>
+          <t>Agi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5963,22 +5963,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ANALISTA DE PRÉ VENDAS - B2B</t>
+          <t>BANCO DE TALENTOS - SUPERVISOR/A DE VENDAS - SÃO PAULO/ABC (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://grupoalura.gupy.io/jobs/8428140?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/6959213?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>13 - Supervisor</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6016,12 +6016,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>Alura</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Educação</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6031,17 +6031,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CIENTISTA DE DADOS SR</t>
+          <t>ANALISTA DE PRÉ VENDAS - B2B</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8391497?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoalura.gupy.io/jobs/8428140?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6057,17 +6057,17 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6084,37 +6084,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>JOVEM APRENDIZ (AUDITORIA DE TI) | VAGA AFIRMATIVA PARA PESSOAS PRETAS E PARDAS</t>
+          <t>CIENTISTA DE DADOS SR</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/dbd8e71f-6361-4777-ab55-a768008a332b</t>
+          <t>https://anbima.gupy.io/jobs/8391497?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6125,12 +6125,12 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6167,12 +6167,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ADVOGADO PLENO - CONSULTIVO NEGÓCIOS</t>
+          <t>JOVEM APRENDIZ (AUDITORIA DE TI) | VAGA AFIRMATIVA PARA PESSOAS PRETAS E PARDAS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/f5cf217f-e331-4504-86c8-69750ea98c94</t>
+          <t>https://jobs.lever.co/bv/dbd8e71f-6361-4777-ab55-a768008a332b</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6193,12 +6193,12 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>08 - Jurídico</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6235,12 +6235,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>COORDENAÇÃO RISCOS DE CRÉDITO - ATACADO</t>
+          <t>ADVOGADO PLENO - CONSULTIVO NEGÓCIOS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/d968fcfd-c06a-4a60-a58c-ab7878450846</t>
+          <t>https://jobs.lever.co/bv/f5cf217f-e331-4504-86c8-69750ea98c94</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6261,12 +6261,12 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Jurídico</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Banco Mercantil</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6298,27 +6298,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS | AGENTE COMERCIAL E SUPORTE (MG)</t>
+          <t>COORDENAÇÃO RISCOS DE CRÉDITO - ATACADO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://mercantil.gupy.io/jobs/6952749?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/d968fcfd-c06a-4a60-a58c-ab7878450846</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>BELO HORIZONTE - MG</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6356,7 +6356,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Banco Sofisa</t>
+          <t>Banco Mercantil</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6371,22 +6371,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ANALISTA DE FORMALIZAÇÃO PLENO - TEMPORÁRIO</t>
+          <t>BANCO DE TALENTOS | AGENTE COMERCIAL E SUPORTE (MG)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8419431?jobBoardSource=gupy_public_page</t>
+          <t>https://mercantil.gupy.io/jobs/6952749?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BELO HORIZONTE - MG</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE RELACIONAMENTO II (COM CERTIFICAÇÃO: CPA20 OU CEA)</t>
+          <t>ANALISTA DE FORMALIZAÇÃO PLENO - TEMPORÁRIO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://bancosofisa.gupy.io/jobs/8415782?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8419431?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6485,19 +6485,19 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bauducco</t>
+          <t>Banco Sofisa</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6507,22 +6507,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS- PROGRAMA JOVEM APRENDIZ - REGIONAL SUL</t>
+          <t>ASSISTENTE DE RELACIONAMENTO II (COM CERTIFICAÇÃO: CPA20 OU CEA)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://bauducco.gupy.io/jobs/7671091?jobBoardSource=gupy_public_page</t>
+          <t>https://bancosofisa.gupy.io/jobs/8415782?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CURITIBA - PR</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6560,12 +6560,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BMG</t>
+          <t>Bauducco</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6575,22 +6575,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE DESENVOLVIMENTO DE SOFTWARE</t>
+          <t>BANCO DE TALENTOS- PROGRAMA JOVEM APRENDIZ - REGIONAL SUL</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8369833?jobBoardSource=gupy_public_page</t>
+          <t>https://bauducco.gupy.io/jobs/7671091?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CURITIBA - PR</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6643,17 +6643,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>COORDENADOR(A) DE OPERAÇÕES - CONVÊNIOS</t>
+          <t>COORDENADOR(A) DE DESENVOLVIMENTO DE SOFTWARE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8349932?jobBoardSource=gupy_public_page</t>
+          <t>https://bmg.gupy.io/jobs/8369833?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6696,37 +6696,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>BMG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[JOB 19709] ANALISTA DE CONTROLES INTERNOS SOX, PLENO, CAMPINAS</t>
+          <t>COORDENADOR(A) DE OPERAÇÕES - CONVÊNIOS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/258a645e-5f76-49fe-a2fa-a38ffa18d140</t>
+          <t>https://bmg.gupy.io/jobs/8349932?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CAMPINAS, SP</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6779,22 +6779,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[JOB-19653] SENIOR JAVA DEVELOPER, BRAZIL</t>
+          <t>[JOB 19709] ANALISTA DE CONTROLES INTERNOS SOX, PLENO, CAMPINAS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/814c5025-b53e-4439-86e4-b14471dfef19</t>
+          <t>https://jobs.lever.co/ciandt/258a645e-5f76-49fe-a2fa-a38ffa18d140</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BRAZIL / CAMPINAS, SP</t>
+          <t>CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6810,12 +6810,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[JOB-19693] SENIOR AI/ML DEVELOPER, BRAZIL</t>
+          <t>[JOB-19653] SENIOR JAVA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e6ac0008-fb0e-45c8-82ff-6e66a66e3b63</t>
+          <t>https://jobs.lever.co/ciandt/814c5025-b53e-4439-86e4-b14471dfef19</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[JOB-19721] MID-LEVEL JAVA DEVELOPER, BRAZIL</t>
+          <t>[JOB-19693] SENIOR AI/ML DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/7eb708d6-0b59-4438-b0a3-3dfdb015a8e1</t>
+          <t>https://jobs.lever.co/ciandt/e6ac0008-fb0e-45c8-82ff-6e66a66e3b63</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6983,12 +6983,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[JOB- 19681] SENIOR QA AUTOMATION, BRAZIL</t>
+          <t>[JOB-19721] MID-LEVEL JAVA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/06706642-055e-47d4-8f5f-9355d8d69734</t>
+          <t>https://jobs.lever.co/ciandt/7eb708d6-0b59-4438-b0a3-3dfdb015a8e1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BRAZIL / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7051,12 +7051,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[JOB-19679] SENIOR FULLSTACK (JAVA E REACT) DEVELOPER, BRAZIL</t>
+          <t>[JOB- 19681] SENIOR QA AUTOMATION, BRAZIL</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/4526b6eb-3f34-47a1-8fcc-c29b6f417b4f</t>
+          <t>https://jobs.lever.co/ciandt/06706642-055e-47d4-8f5f-9355d8d69734</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[JOB 19644] MID LEVEL DATA DEVELOPER, BRAZIL</t>
+          <t>[JOB-19679] SENIOR FULLSTACK (JAVA E REACT) DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/f48d9db7-83e3-48df-a494-1c1ed1d99c91</t>
+          <t>https://jobs.lever.co/ciandt/4526b6eb-3f34-47a1-8fcc-c29b6f417b4f</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7145,12 +7145,12 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[JOB-19652]MID-LEVEL FULL STACK DEVELOPER (NODEJS/REACT NATIVE)</t>
+          <t>[JOB 19644] MID LEVEL DATA DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a1ef0f3c-4e81-4382-a01e-cce73cc6f402</t>
+          <t>https://jobs.lever.co/ciandt/f48d9db7-83e3-48df-a494-1c1ed1d99c91</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -7213,7 +7213,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7255,12 +7255,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[JOB-19432] MASTER JAVA FULLSTACK ENGINEER, BRAZIL</t>
+          <t>[JOB-19652]MID-LEVEL FULL STACK DEVELOPER (NODEJS/REACT NATIVE)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/0be7df9a-7f90-4782-a188-020ecb10e7c7</t>
+          <t>https://jobs.lever.co/ciandt/a1ef0f3c-4e81-4382-a01e-cce73cc6f402</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7308,37 +7308,37 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cielo</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ANALISTA DE DESENVOLVIMENTO COMERCIAL SÊNIOR</t>
+          <t>[JOB-19432] MASTER JAVA FULLSTACK ENGINEER, BRAZIL</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://cielo.gupy.io/jobs/8189378?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/0be7df9a-7f90-4782-a188-020ecb10e7c7</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -7354,12 +7354,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7376,12 +7376,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CVC Corp</t>
+          <t>Cielo</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7391,17 +7391,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ASSISTENTE SUPORTE VENDAS</t>
+          <t>ANALISTA DE DESENVOLVIMENTO COMERCIAL SÊNIOR</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://cvccorp.gupy.io/jobs/8256778?jobBoardSource=gupy_public_page</t>
+          <t>https://cielo.gupy.io/jobs/8189378?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SANTO ANDRÉ - SP</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7444,12 +7444,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dasa Tecnologia</t>
+          <t>CVC Corp</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7459,17 +7459,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CONSULTOR(A) DE REDES SR</t>
+          <t>ASSISTENTE SUPORTE VENDAS</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://dasatecnologia.gupy.io/jobs/8423458?jobBoardSource=gupy_public_page</t>
+          <t>https://cvccorp.gupy.io/jobs/8256778?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TRABALHO HÍBRIDO</t>
+          <t>SANTO ANDRÉ - SP</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>10 - Consultor</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -7512,12 +7512,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dotz</t>
+          <t>Dasa Tecnologia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Benefícios</t>
+          <t>Saúde</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7527,17 +7527,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>DESENVOLVEDOR BACKEND SÊNIOR</t>
+          <t>CONSULTOR(A) DE REDES SR</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://dotz.gupy.io/jobs/8425702?jobBoardSource=gupy_public_page</t>
+          <t>https://dasatecnologia.gupy.io/jobs/8423458?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>TRABALHO HÍBRIDO</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7558,12 +7558,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>10 - Consultor</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7595,17 +7595,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ESTAGIÁRIO DE COMUNICAÇÃO &amp; MARCA</t>
+          <t>DESENVOLVEDOR BACKEND SÊNIOR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://dotz.gupy.io/jobs/8426472?jobBoardSource=gupy_public_page</t>
+          <t>https://dotz.gupy.io/jobs/8425702?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7626,12 +7626,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7648,12 +7648,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DRUID Creative Gaming</t>
+          <t>Dotz</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Games</t>
+          <t>Benefícios</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE CAPTURA/ ATUAÇÃO</t>
+          <t>ESTAGIÁRIO DE COMUNICAÇÃO &amp; MARCA</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174551?jobBoardSource=gupy_public_page</t>
+          <t>https://dotz.gupy.io/jobs/8426472?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PESSOA JURÍDICA</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>EDITOR DE VÍDEO DE GAMEPLAY (VERSIONAMENTO)</t>
+          <t>ASSISTENTE DE CAPTURA/ ATUAÇÃO</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/7871593?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174551?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -7799,12 +7799,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>EDITOR DE VÍDEO SÊNIOR</t>
+          <t>EDITOR DE VÍDEO DE GAMEPLAY (VERSIONAMENTO)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174437?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/7871593?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7867,12 +7867,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>JOGADOR PARA CAPTURA DE GAME</t>
+          <t>EDITOR DE VÍDEO SÊNIOR</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174620?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174437?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7935,12 +7935,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ROTEIRISTA DE GAMEPLAY TRAILER</t>
+          <t>JOGADOR PARA CAPTURA DE GAME</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://druid.gupy.io/jobs/8174499?jobBoardSource=gupy_public_page</t>
+          <t>https://druid.gupy.io/jobs/8174620?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7988,37 +7988,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>DRUID Creative Gaming</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Games</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MARKETING SENIOR MANAGER - GLOBAL BRAND</t>
+          <t>ROTEIRISTA DE GAMEPLAY TRAILER</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6050610003</t>
+          <t>https://druid.gupy.io/jobs/8174499?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>SÃO PAULO OR CURITIBA</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>PESSOA JURÍDICA</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -8029,12 +8029,12 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>16 - Gerente Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -8056,37 +8056,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EMS</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS - ÁREA DE MANIPULAÇÃO / PESAGEM</t>
+          <t>MARKETING SENIOR MANAGER - GLOBAL BRAND</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://ems.gupy.io/jobs/8407546?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6050610003</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>HORTOLÂNDIA - SP</t>
+          <t>SÃO PAULO OR CURITIBA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BANCO DE TALENTOS</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -8097,12 +8097,12 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>00 - Banco de Talentos</t>
+          <t>16 - Gerente Sênior</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -8124,12 +8124,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Genial Investimentos</t>
+          <t>EMS</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Corretora</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -8139,22 +8139,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ANALISTA DE PLD (OPERAÇÕES DE CÂMBIO)</t>
+          <t>BANCO DE TALENTOS - ÁREA DE MANIPULAÇÃO / PESAGEM</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://genial.gupy.io/jobs/8427684?jobBoardSource=gupy_public_page</t>
+          <t>https://ems.gupy.io/jobs/8407546?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>HORTOLÂNDIA - SP</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BANCO DE TALENTOS</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>00 - Banco de Talentos</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>Genial Investimentos</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Corretora</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -8207,17 +8207,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES | BRASÍLIA/DF</t>
+          <t>ANALISTA DE PLD (OPERAÇÕES DE CÂMBIO)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://grupoboticario.gupy.io/jobs/8310481?jobBoardSource=gupy_public_page</t>
+          <t>https://genial.gupy.io/jobs/8427684?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>BRASILIA - DF</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>Grupo Boticário</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8275,17 +8275,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ANALISTA DE CUSTOS SR (ITUPEVA-SP)</t>
+          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES | BRASÍLIA/DF</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8423380?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoboticario.gupy.io/jobs/8310481?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ITUPEVA - SP E HÍBRIDO</t>
+          <t>BRASILIA - DF</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -8328,12 +8328,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>Grupo L'Occitane</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Cosméticos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -8343,17 +8343,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE GOVERNANÇA DE TI SÊNIOR</t>
+          <t>ANALISTA DE CUSTOS SR (ITUPEVA-SP)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8337421?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8423380?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>ITUPEVA - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8411,17 +8411,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE LOGISTICA SR | INDMATRIZ</t>
+          <t>CIA HERING | ANALISTA DE GOVERNANÇA DE TI SÊNIOR</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8425569?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8337421?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>BLUMENAU</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8464,12 +8464,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -8479,17 +8479,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ANALISTA DE DADOS JUNIOR (ALTERYX)</t>
+          <t>CIA HERING | ANALISTA DE LOGISTICA SR | INDMATRIZ</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8427362?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8425569?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>BLUMENAU</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8505,12 +8505,12 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8532,12 +8532,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LOUD</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Games</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8547,22 +8547,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ANALISTA DE CONTEÚDO PLENO</t>
+          <t>ANALISTA DE DADOS JUNIOR (ALTERYX)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://loud.gupy.io/jobs/8426675?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8427362?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>PESSOA JURÍDICA</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8573,12 +8573,12 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8600,12 +8600,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Meliuz</t>
+          <t>LOUD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Recompensas</t>
+          <t>Games</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -8615,22 +8615,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PESSOA ENGENHEIRA DE DADOS PLENO (VAGA REMOTA)</t>
+          <t>ANALISTA DE CONTEÚDO PLENO</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://meliuz.gupy.io/jobs/8054637?jobBoardSource=gupy_public_page</t>
+          <t>https://loud.gupy.io/jobs/8426675?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PESSOA JURÍDICA</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -8641,7 +8641,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8668,12 +8668,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PagSeguro</t>
+          <t>Meliuz</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Recompensas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -8683,17 +8683,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ANALISTA DE OPERAÇÕES JR</t>
+          <t>PESSOA ENGENHEIRA DE DADOS PLENO (VAGA REMOTA)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://pagseguro.gupy.io/jobs/8361476?jobBoardSource=gupy_public_page</t>
+          <t>https://meliuz.gupy.io/jobs/8054637?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8709,17 +8709,17 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8736,37 +8736,37 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>PagSeguro</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Grupo Quintoandar | Analista de Treinamento</t>
+          <t>ANALISTA DE OPERAÇÕES JR</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/FD886E9773</t>
+          <t>https://pagseguro.gupy.io/jobs/8361476?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -8777,12 +8777,12 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8819,22 +8819,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Gerente de Performance Comercial</t>
+          <t>Grupo Quintoandar | Analista de Treinamento</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/42B3F3C149</t>
+          <t>https://apply.workable.com/quintoandar/j/FD886E9773</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8845,12 +8845,12 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8887,22 +8887,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista De Riscos Sênior</t>
+          <t>Grupo QuintoAndar | Gerente de Performance Comercial</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/5FAF199176</t>
+          <t>https://apply.workable.com/quintoandar/j/42B3F3C149</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8955,12 +8955,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista de Controles Internos Sênior</t>
+          <t>Grupo QuintoAndar | Analista De Riscos Sênior</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/08CFE628CE</t>
+          <t>https://apply.workable.com/quintoandar/j/5FAF199176</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -9008,37 +9008,37 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>QUOD</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Birô de Crédito</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ESPECIALISTA DATA SCIENCE</t>
+          <t>Grupo QuintoAndar | Analista de Controles Internos Sênior</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://vempraquod.gupy.io/jobs/8205317?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/quintoandar/j/08CFE628CE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9049,17 +9049,17 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -9076,12 +9076,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>QUOD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Alimentos</t>
+          <t>Birô de Crédito</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -9091,17 +9091,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATENDENDENTE DE LOJA - LINS</t>
+          <t>ESPECIALISTA DATA SCIENCE</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8375633?jobBoardSource=gupy_public_page</t>
+          <t>https://vempraquod.gupy.io/jobs/8205317?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>LINS - SP</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9117,17 +9117,17 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9159,17 +9159,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ATENDENTE DE LOJA - CARREFOUR PINHEIROS (LOJA EDUCADORA)</t>
+          <t xml:space="preserve"> ATENDENDENTE DE LOJA - LINS</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8373872?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8375633?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>LINS - SP</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -9227,17 +9227,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
+          <t>ATENDENTE DE LOJA - CARREFOUR PINHEIROS (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415569?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8373872?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://swift.gupy.io/jobs/8415302?jobBoardSource=gupy_public_page</t>
+          <t>https://swift.gupy.io/jobs/8415569?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9348,37 +9348,37 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>XP Inc</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>GOIÂNIA - XP FUTURE | TRANSIÇÃO DE CARREIRA</t>
+          <t>SWIFT - ATENDENTE DE LOJA - ALPHAVILLE (LOJA EDUCADORA)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7800113002</t>
+          <t>https://swift.gupy.io/jobs/8415302?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>GOIÂNIA</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -9416,7 +9416,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Banco ABC</t>
+          <t>XP Inc</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9426,32 +9426,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ASSISTENTE COMERCIAL CORPORATE - CAMPINAS</t>
+          <t>GOIÂNIA - XP FUTURE | TRANSIÇÃO DE CARREIRA</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://abcbrasil.gupy.io/jobs/8421703?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7800113002</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>CAMPINAS - SP</t>
+          <t>GOIÂNIA</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9484,7 +9484,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9499,17 +9499,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>AGENTE DE PROSPECÇÃO DE CLIENTES (AUTOMOTIVO)</t>
+          <t>ASSISTENTE COMERCIAL CORPORATE - CAMPINAS</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8342482?jobBoardSource=gupy_public_page</t>
+          <t>https://abcbrasil.gupy.io/jobs/8421703?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
+          <t>CAMPINAS - SP</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -9552,37 +9552,37 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[JOB - 18826] MID LEVEL DATA ANALYST, BRAZIL</t>
+          <t>AGENTE DE PROSPECÇÃO DE CLIENTES (AUTOMOTIVO)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/aafc4bdf-4358-4ff9-8aff-d12516227ef1</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8342482?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t>SÃO JOSÉ DO RIO PRETO - SP</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -9593,17 +9593,17 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9620,37 +9620,37 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Agi</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO LUÍS/MA - RUA GRANDE (PRESENCIAL)</t>
+          <t>[JOB - 18826] MID LEVEL DATA ANALYST, BRAZIL</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://agibank.gupy.io/jobs/8200418?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/aafc4bdf-4358-4ff9-8aff-d12516227ef1</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>SÃO LUÍS - MA</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -9661,17 +9661,17 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9688,12 +9688,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ambev</t>
+          <t>Agi</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9703,17 +9703,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO I (CDD BOM JESUS DA LAPA - BA)</t>
+          <t>AUXILIAR DE VENDAS E ATENDIMENTO - SÃO LUÍS/MA - RUA GRANDE (PRESENCIAL)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://ambev.gupy.io/jobs/8322568?jobBoardSource=gupy_public_page</t>
+          <t>https://agibank.gupy.io/jobs/8200418?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>BOM JESUS DA LAPA - BA</t>
+          <t>SÃO LUÍS - MA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9729,12 +9729,12 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9756,12 +9756,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>Ambev</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -9771,17 +9771,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ANALISTA DE RECURSOS HUMANOS (VAGA AFIRMATIVA EXCLUSIVA PARA MULHERES NEGRAS 50+)</t>
+          <t>ANALISTA FINANCEIRO I (CDD BOM JESUS DA LAPA - BA)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8419290?jobBoardSource=gupy_public_page</t>
+          <t>https://ambev.gupy.io/jobs/8322568?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>BOM JESUS DA LAPA - BA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9797,12 +9797,12 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -9824,37 +9824,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ANALISTA DE INOVAÇÃO DE CRÉDITO PLENO</t>
+          <t>ANALISTA DE RECURSOS HUMANOS (VAGA AFIRMATIVA EXCLUSIVA PARA MULHERES NEGRAS 50+)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/66365d79-18c0-4a82-8887-b4ec00d110da</t>
+          <t>https://anbima.gupy.io/jobs/8419290?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -9865,12 +9865,12 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -9907,12 +9907,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO EM RISCO CRÉDITO VAREJO</t>
+          <t>ANALISTA DE INOVAÇÃO DE CRÉDITO PLENO</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/c40bfba4-1cc8-4202-ac0f-98bc391744c8</t>
+          <t>https://jobs.lever.co/bv/66365d79-18c0-4a82-8887-b4ec00d110da</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9975,12 +9975,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ANALISTA SÊNIOR EM RISCO CRÉDITO VAREJO</t>
+          <t>ANALISTA PLENO EM RISCO CRÉDITO VAREJO</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/bd59854e-e672-4d60-bdc2-1dd7f7267279</t>
+          <t>https://jobs.lever.co/bv/c40bfba4-1cc8-4202-ac0f-98bc391744c8</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10028,7 +10028,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Banco Rodobens</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10038,27 +10038,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>AJUDANTE DE OFICINA</t>
+          <t>ANALISTA SÊNIOR EM RISCO CRÉDITO VAREJO</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://rodobenscarreiras.gupy.io/jobs/8349944?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/bd59854e-e672-4d60-bdc2-1dd7f7267279</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CARUARU - PE</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10096,12 +10096,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Brasilprev</t>
+          <t>Banco Rodobens</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -10111,17 +10111,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE A OPERAÇÕES E PRODUÇÃO JUNIOR</t>
+          <t>AJUDANTE DE OFICINA</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://brasilprev.gupy.io/jobs/8352526?jobBoardSource=gupy_public_page</t>
+          <t>https://rodobenscarreiras.gupy.io/jobs/8349944?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CARUARU - PE</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -10142,7 +10142,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10164,12 +10164,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cacau Show</t>
+          <t>Brasilprev</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -10179,17 +10179,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ANALISTA CONTABIL PL</t>
+          <t>ANALISTA DE SUPORTE A OPERAÇÕES E PRODUÇÃO JUNIOR</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://cacaushow.gupy.io/jobs/8164414?jobBoardSource=gupy_public_page</t>
+          <t>https://brasilprev.gupy.io/jobs/8352526?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ITAPEVI - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10232,7 +10232,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Centauro</t>
+          <t>Cacau Show</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10247,17 +10247,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ASSISTENTE DE ESTOQUE - BOULEVARD SHOPPING BA</t>
+          <t>ANALISTA CONTABIL PL</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://centaurotalentos.gupy.io/jobs/8418667?jobBoardSource=gupy_public_page</t>
+          <t>https://cacaushow.gupy.io/jobs/8164414?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>FEIRA DE SANTANA - BA</t>
+          <t>ITAPEVI - SP</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>04 - Assistente</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10300,37 +10300,37 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>Centauro</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>TECHNICAL SOLUTION ARCHITECT</t>
+          <t>ASSISTENTE DE ESTOQUE - BOULEVARD SHOPPING BA</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/083b51fa-ddca-45a7-b080-823f19e43162</t>
+          <t>https://centaurotalentos.gupy.io/jobs/8418667?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>FEIRA DE SANTANA - BA</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>MELBOURNE / SYDNEY</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>04 - Assistente</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10383,12 +10383,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[JOB-19688] TECH LEAD, MALVERN, PA</t>
+          <t>TECHNICAL SOLUTION ARCHITECT</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/7d0ea81b-52a8-4cdf-86ed-122bf9a08433</t>
+          <t>https://jobs.lever.co/ciandt/083b51fa-ddca-45a7-b080-823f19e43162</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>PENNSYLVANIA, PA</t>
+          <t>MELBOURNE / SYDNEY</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>12 - Líder</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -10451,12 +10451,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[JOB-19689] BUSINESS ANALYST, MALVERN, PA</t>
+          <t>[JOB-19688] TECH LEAD, MALVERN, PA</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/9ffd5a3c-dca3-4688-a790-b3a12d51381e</t>
+          <t>https://jobs.lever.co/ciandt/7d0ea81b-52a8-4cdf-86ed-122bf9a08433</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>12 - Líder</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10519,22 +10519,22 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR DEVOPS, BRASIL</t>
+          <t>[JOB-19689] BUSINESS ANALYST, MALVERN, PA</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/cf11c6b2-92bc-432a-908f-123d93ebc1d9</t>
+          <t>https://jobs.lever.co/ciandt/9ffd5a3c-dca3-4688-a790-b3a12d51381e</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PENNSYLVANIA, PA</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -10550,12 +10550,12 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10587,12 +10587,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR DEVOPS, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR DEVOPS, BRASIL</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/4c09bdc7-7437-49e5-b6ac-ab4a89b64732</t>
+          <t>https://jobs.lever.co/ciandt/cf11c6b2-92bc-432a-908f-123d93ebc1d9</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10602,7 +10602,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -10655,12 +10655,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, BRASIL</t>
+          <t>[JOB-19691] MID/SENIOR DEVOPS, COLOMBIA</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e342223f-03ca-49c7-83f2-ddba29c75c16</t>
+          <t>https://jobs.lever.co/ciandt/4c09bdc7-7437-49e5-b6ac-ab4a89b64732</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -10723,12 +10723,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, BRASIL</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/73f260bc-ff99-45ea-abd9-d758a034b7db</t>
+          <t>https://jobs.lever.co/ciandt/e342223f-03ca-49c7-83f2-ddba29c75c16</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, BRASIL</t>
+          <t>[JOB-19691] MID/SENIOR PLATFORM ENGINEER, COLOMBIA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/541993ea-be44-4d73-9625-42e8261581ee</t>
+          <t>https://jobs.lever.co/ciandt/73f260bc-ff99-45ea-abd9-d758a034b7db</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, COLOMBIA</t>
+          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, BRASIL</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/07d1c561-d3a8-4777-a2ba-3fa741a81125</t>
+          <t>https://jobs.lever.co/ciandt/541993ea-be44-4d73-9625-42e8261581ee</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>BOGOTÁ / MEDELLIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -10927,12 +10927,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[JOB-19675] SÊNIOR DATA DEVELOPER</t>
+          <t>[JOB-19691] MID/SENIOR PYTHON DEVELOPER + INFRA KNOWLEDGE, COLOMBIA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/629fcac7-b41c-4468-8be2-1e0bd4d51d2a</t>
+          <t>https://jobs.lever.co/ciandt/07d1c561-d3a8-4777-a2ba-3fa741a81125</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BOGOTÁ / MEDELLIN</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10953,7 +10953,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10995,12 +10995,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[ JOB - 19662] DATA ARCHITECT</t>
+          <t>[JOB-19675] SÊNIOR DATA DEVELOPER</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/d3eb234f-ec82-450b-b210-580cc7761820</t>
+          <t>https://jobs.lever.co/ciandt/629fcac7-b41c-4468-8be2-1e0bd4d51d2a</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>BRAZIL / CAMPINAS, SP</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -11063,12 +11063,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[JOB-18621] MID-LEVEL FLUTTER DEVELOPER, BRAZIL</t>
+          <t>[ JOB - 19662] DATA ARCHITECT</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/e18bc4d3-ff52-4aac-a43b-af99b1179bd0</t>
+          <t>https://jobs.lever.co/ciandt/d3eb234f-ec82-450b-b210-580cc7761820</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>BRAZIL / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11089,12 +11089,12 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11131,12 +11131,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[JOB-19657] SÊNIOR IOS/SWIFT DEVELOPER, BRAZIL</t>
+          <t>[JOB-18621] MID-LEVEL FLUTTER DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a2a451a0-0210-4e6f-9fa8-32f2e3d01527</t>
+          <t>https://jobs.lever.co/ciandt/e18bc4d3-ff52-4aac-a43b-af99b1179bd0</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11199,12 +11199,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[JOB-19664] SENIOR DEVELOPER BACKEND (GOLANG), BRASIL</t>
+          <t>[JOB-19657] SÊNIOR IOS/SWIFT DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/28e7007d-6e4d-485d-800d-5231e5af4b2f</t>
+          <t>https://jobs.lever.co/ciandt/a2a451a0-0210-4e6f-9fa8-32f2e3d01527</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -11252,37 +11252,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ClearSale</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ANALISTA DE FATURAMENTO PLENO INTERNACIONAL</t>
+          <t>[JOB-19664] SENIOR DEVELOPER BACKEND (GOLANG), BRASIL</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://clearsale.gupy.io/jobs/8328931?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/28e7007d-6e4d-485d-800d-5231e5af4b2f</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -11320,12 +11320,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Daycoval DayCambio</t>
+          <t>ClearSale</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -11335,17 +11335,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ATENDENTE DE CÂMBIO JUNIOR</t>
+          <t>ANALISTA DE FATURAMENTO PLENO INTERNACIONAL</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419650?jobBoardSource=gupy_public_page</t>
+          <t>https://clearsale.gupy.io/jobs/8328931?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -11366,12 +11366,12 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419619?jobBoardSource=gupy_public_page</t>
+          <t>https://daycambio.gupy.io/jobs/8419650?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11471,17 +11471,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PORTADOR JUNIOR</t>
+          <t>ATENDENTE DE CÂMBIO JUNIOR</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://daycambio.gupy.io/jobs/8419662?jobBoardSource=gupy_public_page</t>
+          <t>https://daycambio.gupy.io/jobs/8419619?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>BRASÍLIA - DF</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -11524,37 +11524,37 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ebanx</t>
+          <t>Daycoval DayCambio</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Soluções de Pagamento</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>BANKING INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>PORTADOR JUNIOR</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317848003</t>
+          <t>https://daycambio.gupy.io/jobs/8419662?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">CURITIBA | PRESENCIAL </t>
+          <t>BRASÍLIA - DF</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -11607,12 +11607,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BUSINESS OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>BANKING INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317847003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317848003</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11675,12 +11675,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>COMMERCIAL OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>BUSINESS OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317839003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317847003</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11743,12 +11743,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>FINANCE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>COMMERCIAL OPERATIONS INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317830003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317839003</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11811,12 +11811,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>INFORMATION SECURITY INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>FINANCE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317559003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317830003</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -11879,12 +11879,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>LEGAL INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>INFORMATION SECURITY INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317948003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317559003</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -11947,12 +11947,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>PEOPLE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
+          <t>LEGAL INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6317947003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317948003</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -12015,17 +12015,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>TREASURY SR ANALYST</t>
+          <t>PEOPLE INTERN | AFIRMATIVO PARA PESSOAS NEGRAS</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//ebanx/jobs/6306496003</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6317947003</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CURITIBA OR SÃO PAULO</t>
+          <t xml:space="preserve">CURITIBA | PRESENCIAL </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -12046,7 +12046,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12068,37 +12068,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Energisa (Corp)</t>
+          <t>Ebanx</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Energia</t>
+          <t>Soluções de Pagamento</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ANALISTA DE COMPRAS III</t>
+          <t>TREASURY SR ANALYST</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://grupoenergisa.gupy.io/jobs/8415952?jobBoardSource=gupy_public_page</t>
+          <t>https://boards.greenhouse.io//ebanx/jobs/6306496003</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>CATAGUASES - MG</t>
+          <t>CURITIBA OR SÃO PAULO</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -12136,12 +12136,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GOL Linhas Aéreas</t>
+          <t>Energisa (Corp)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Viagens</t>
+          <t>Energia</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -12151,17 +12151,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ANALISTA DE DADOS</t>
+          <t>ANALISTA DE COMPRAS III</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://golcarreiras.gupy.io/jobs/8185156?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoenergisa.gupy.io/jobs/8415952?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>CATAGUASES - MG</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -12177,12 +12177,12 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -12204,12 +12204,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Grupo L'Occitane</t>
+          <t>GOL Linhas Aéreas</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Viagens</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -12219,12 +12219,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ANALISTA DE CRM PL</t>
+          <t>ANALISTA DE DADOS</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://sejaloccitane.gupy.io/jobs/8418836?jobBoardSource=gupy_public_page</t>
+          <t>https://golcarreiras.gupy.io/jobs/8185156?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -12272,27 +12272,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>Grupo L'Occitane</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cosméticos</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>Gupy</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Recrutamento</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Gupy</t>
-        </is>
-      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PESSOA CONSULTORA DE CUSTOMER SUCCESS GRANDES CONTAS</t>
+          <t>ANALISTA DE CRM PL</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://vempra.gupy.io/jobs/8403156?jobBoardSource=gupy_public_page</t>
+          <t>https://sejaloccitane.gupy.io/jobs/8418836?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -12313,12 +12313,12 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>10 - Consultor</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://vempra.gupy.io/jobs/8304621?jobBoardSource=gupy_public_page</t>
+          <t>https://vempra.gupy.io/jobs/8403156?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -12408,12 +12408,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Recrutamento</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -12423,17 +12423,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CIA HERING | ABASTECEDOR COST INTERNA - 1º TURNO | IND - GOIANÉSIA</t>
+          <t>PESSOA CONSULTORA DE CUSTOMER SUCCESS GRANDES CONTAS</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8412319?jobBoardSource=gupy_public_page</t>
+          <t>https://vempra.gupy.io/jobs/8304621?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>GOIANIRA - GO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>10 - Consultor</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -12476,12 +12476,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -12491,17 +12491,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ANALISTA DE ENGENHARIA ANALYTICS PLENO - EXCLUSIVO PARA PROFISSIONAIS COM DEFICIÊNCIA</t>
+          <t>CIA HERING | ABASTECEDOR COST INTERNA - 1º TURNO | IND - GOIANÉSIA</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://vemproitau.gupy.io/jobs/7782767?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8412319?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>SAO PAULO - SP E HÍBRIDO</t>
+          <t>GOIANIRA - GO</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -12517,12 +12517,12 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -12544,12 +12544,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KPMG Brasil</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -12559,17 +12559,17 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>AUDIT ASSOCIATE ASSURANCE</t>
+          <t>ANALISTA DE ENGENHARIA ANALYTICS PLENO - EXCLUSIVO PARA PROFISSIONAIS COM DEFICIÊNCIA</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8416375?jobBoardSource=gupy_public_page</t>
+          <t>https://vemproitau.gupy.io/jobs/7782767?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SAO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -12585,12 +12585,12 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://kpmgbrasil.gupy.io/jobs/8414082?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8416375?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12680,12 +12680,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>McDonalds (Corporativo)</t>
+          <t>KPMG Brasil</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12695,22 +12695,22 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>APRENDIZ AUXILIAR ADMINISTRATIVO - RH</t>
+          <t>AUDIT ASSOCIATE ASSURANCE</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://corporativomc.gupy.io/jobs/8395386?jobBoardSource=gupy_public_page</t>
+          <t>https://kpmgbrasil.gupy.io/jobs/8414082?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>BARUERI - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>APRENDIZ</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -12721,12 +12721,12 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>07 - RH</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>03 - Auxiliar/Ajudante</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12748,7 +12748,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>McDonalds (Restaurante)</t>
+          <t>McDonalds (Corporativo)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -12763,17 +12763,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
+          <t>APRENDIZ AUXILIAR ADMINISTRATIVO - RH</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8415786?jobBoardSource=gupy_public_page</t>
+          <t>https://corporativomc.gupy.io/jobs/8395386?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO - RJ</t>
+          <t>BARUERI - SP</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -12789,12 +12789,12 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>07 - RH</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>01 - Aprendiz</t>
+          <t>03 - Auxiliar/Ajudante</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://restaurantemc.gupy.io/jobs/8414137?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8415786?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12884,12 +12884,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Meliuz</t>
+          <t>McDonalds (Restaurante)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Recompensas</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -12899,22 +12899,22 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ESTÁGIO EM OPERAÇÕES - MISSION CONTROL</t>
+          <t>APRENDIZ DE ATENDENTE DE RESTAURANTE(BARRA DA TIJUCA - RIO DE JANEIRO/RJ)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://meliuz.gupy.io/jobs/8373625?jobBoardSource=gupy_public_page</t>
+          <t>https://restaurantemc.gupy.io/jobs/8414137?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>RIO DE JANEIRO - RJ</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>APRENDIZ</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -12930,12 +12930,12 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>01 - Aprendiz</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -12952,37 +12952,37 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>Meliuz</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Recompensas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Quinto Andar I Fintech Business Specialist</t>
+          <t>ESTÁGIO EM OPERAÇÕES - MISSION CONTROL</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/D3EAEA54BD</t>
+          <t>https://meliuz.gupy.io/jobs/8373625?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -12998,12 +12998,12 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -13035,22 +13035,22 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Analista de Growth</t>
+          <t>Quinto Andar I Fintech Business Specialist</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/359C5629E4</t>
+          <t>https://apply.workable.com/quintoandar/j/D3EAEA54BD</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / Brazil</t>
+          <t>São Paulo / Brazil</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -13103,17 +13103,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Mid-level Tech Recruiter</t>
+          <t>Grupo QuintoAndar | Analista de Growth</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/3B4B1F526C</t>
+          <t>https://apply.workable.com/quintoandar/j/359C5629E4</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Buenos Aires / Argentina</t>
+          <t xml:space="preserve"> / Brazil</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -13156,37 +13156,37 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>QUOD</t>
+          <t>Quinto Andar</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Birô de Crédito</t>
+          <t>Imoveis</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ANALISTA DE MODELAGEM SR</t>
+          <t>Grupo QuintoAndar | Mid-level Tech Recruiter</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://vempraquod.gupy.io/jobs/8354872?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/quintoandar/j/3B4B1F526C</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>Buenos Aires / Argentina</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>TRABALHO REMOTO</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -13202,12 +13202,12 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -13224,37 +13224,37 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RecargaPay</t>
+          <t>QUOD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Birô de Crédito</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Business Intelligence Specialist</t>
+          <t>ANALISTA DE MODELAGEM SR</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/recargapay/j/F9A88ADCEB</t>
+          <t>https://vempraquod.gupy.io/jobs/8354872?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>None / Brazil</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -13265,17 +13265,17 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -13292,37 +13292,37 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Safra</t>
+          <t>RecargaPay</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ANALISTA DE PLD SR</t>
+          <t>Business Intelligence Specialist</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://venhasersafra.gupy.io/jobs/8413679?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/recargapay/j/F9A88ADCEB</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>None / Brazil</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -13333,12 +13333,12 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -13360,12 +13360,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vivo Digital</t>
+          <t>Safra</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -13375,17 +13375,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROJETOS SR - INDICADORES</t>
+          <t>ANALISTA DE PLD SR</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://vivodigital.gupy.io/jobs/8404374?jobBoardSource=gupy_public_page</t>
+          <t>https://venhasersafra.gupy.io/jobs/8413679?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -13443,12 +13443,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ANALISTA SRE SR</t>
+          <t>ANALISTA DE PROJETOS SR - INDICADORES</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://vivodigital.gupy.io/jobs/8337236?jobBoardSource=gupy_public_page</t>
+          <t>https://vivodigital.gupy.io/jobs/8404374?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -13496,12 +13496,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>will bank</t>
+          <t>Vivo Digital</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -13511,17 +13511,17 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ANALISTA SÊNIOR DE PEOPLE ANALYTICS</t>
+          <t>ANALISTA SRE SR</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://vemserwill.gupy.io/jobs/8403179?jobBoardSource=gupy_public_page</t>
+          <t>https://vivodigital.gupy.io/jobs/8337236?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>TRABALHO REMOTO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -13537,7 +13537,7 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -13564,7 +13564,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>XP Inc</t>
+          <t>will bank</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -13574,27 +13574,27 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Greenhouse</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ANALISTA DE FP&amp;A SENIOR</t>
+          <t>ANALISTA SÊNIOR DE PEOPLE ANALYTICS</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7803773002</t>
+          <t>https://vemserwill.gupy.io/jobs/8403179?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>TRABALHO REMOTO</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -13605,7 +13605,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -13647,12 +13647,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>COORDENADOR - AUDITORIA INTERNA | TECNOLOGIA</t>
+          <t>ANALISTA DE FP&amp;A SENIOR</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7742273002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7803773002</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -13715,17 +13715,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>XP FUTURE | PETRÓPOLIS, TERESÓPOLIS E NOVA FRIBURGO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
+          <t>COORDENADOR - AUDITORIA INTERNA | TECNOLOGIA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7802773002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7742273002</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>RIO DE JANEIRO INTERIOR</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -13783,17 +13783,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>XP FUTURE RIO DE JANEIRO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
+          <t>XP FUTURE | PETRÓPOLIS, TERESÓPOLIS E NOVA FRIBURGO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7164953002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7802773002</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>BRASIL</t>
+          <t>RIO DE JANEIRO INTERIOR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -13851,17 +13851,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>XP FUTURE SÃO PAULO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
+          <t>XP FUTURE RIO DE JANEIRO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7122059002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7164953002</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>BRASIL</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -13919,12 +13919,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>STAFF ARCHITECT (MOBILE)</t>
+          <t>XP FUTURE SÃO PAULO | TRANSIÇÃO DE CARREIRA - ASSESSORIA DE INVESTIMENTOS</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7675500002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7122059002</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13987,12 +13987,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>STAFF ARCHITECT (SOLUTIONS)</t>
+          <t>STAFF ARCHITECT (MOBILE)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7799461002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7675500002</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ANALISTA SÊNIOR DE AUDITORIA INTERNA | DADOS E TRANSFORMAÇÃO DIGITAL</t>
+          <t>STAFF ARCHITECT (SOLUTIONS)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://boards.greenhouse.io//xpinc/jobs/7801154002</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7799461002</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -14081,12 +14081,12 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -14108,48 +14108,48 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>XP Inc</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Greenhouse</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[JOB-19671] SENIOR ESTRATEGISTA DIGITAL PARA PRODUTO , BRASIL</t>
+          <t>ANALISTA SÊNIOR DE AUDITORIA INTERNA | DADOS E TRANSFORMAÇÃO DIGITAL</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/cc2b451b-4b39-4eea-9edf-ccced25f7a60</t>
+          <t>https://boards.greenhouse.io//xpinc/jobs/7801154002</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>SÃO PAULO, SP / CAMPINAS, SP</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -14191,12 +14191,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[JOB-19672] SENIOR PRODUCT DESIGNER , BRASIL</t>
+          <t>[JOB-19671] SENIOR ESTRATEGISTA DIGITAL PARA PRODUTO , BRASIL</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/91c07efd-e80e-4447-80cc-ff8e9c5867bc</t>
+          <t>https://jobs.lever.co/ciandt/cc2b451b-4b39-4eea-9edf-ccced25f7a60</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -14217,7 +14217,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>10 - Product Designer</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14259,12 +14259,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[JOB - 18826] MID LEVEL DATA ANALYST</t>
+          <t>[JOB-19672] SENIOR PRODUCT DESIGNER , BRASIL</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/689ebf2f-d9d7-4e68-ad21-35fbcd0d7c1b</t>
+          <t>https://jobs.lever.co/ciandt/91c07efd-e80e-4447-80cc-ff8e9c5867bc</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -14274,7 +14274,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>MEDELLIN</t>
+          <t>SÃO PAULO, SP / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -14285,12 +14285,12 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>10 - Product Designer</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -14312,37 +14312,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE PLANEJAMENTO FINANCEIRO II | BLUMENAU/SC</t>
+          <t>[JOB - 18826] MID LEVEL DATA ANALYST</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8057868?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/689ebf2f-d9d7-4e68-ad21-35fbcd0d7c1b</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>BLUMENAU - SC E HÍBRIDO</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>MEDELLIN</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -14353,7 +14353,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -14380,12 +14380,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>McDonalds (Corporativo)</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -14395,22 +14395,22 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ESTAGIARIO (A) - SUPPLY CHAIN</t>
+          <t>CIA HERING | ANALISTA DE PLANEJAMENTO FINANCEIRO II | BLUMENAU/SC</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://corporativomc.gupy.io/jobs/8209067?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8057868?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>BLUMENAU - SC E HÍBRIDO</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -14421,12 +14421,12 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -14448,37 +14448,37 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sinch</t>
+          <t>McDonalds (Corporativo)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Mid-Senior Full Stack Engineer</t>
+          <t>ESTAGIARIO (A) - SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/sinch/j/9A8A51D5BA</t>
+          <t>https://corporativomc.gupy.io/jobs/8209067?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Stockholm / Sweden</t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -14516,37 +14516,37 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Unimed Brasil</t>
+          <t>Sinch</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Saúde</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Workable</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>OFICIAL DE MANUTENÇÃO PREDIAL</t>
+          <t>Mid-Senior Full Stack Engineer</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://unimed-brasil.gupy.io/jobs/8362582?jobBoardSource=gupy_public_page</t>
+          <t>https://apply.workable.com/sinch/j/9A8A51D5BA</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>Stockholm / Sweden</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>PRESENCIAL</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -14584,12 +14584,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Unimed Brasil</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Telefonia</t>
+          <t>Saúde</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -14599,17 +14599,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ANALISTA DE PROJETOS PLENO</t>
+          <t>OFICIAL DE MANUTENÇÃO PREDIAL</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://vivo.gupy.io/jobs/8346069?jobBoardSource=gupy_public_page</t>
+          <t>https://unimed-brasil.gupy.io/jobs/8362582?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -14652,12 +14652,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ambev</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Telefonia</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -14667,17 +14667,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO (CAMPOS DO GOYTACAZES/RJ)</t>
+          <t>ANALISTA DE PROJETOS PLENO</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://ambev.gupy.io/jobs/8233369?jobBoardSource=gupy_public_page</t>
+          <t>https://vivo.gupy.io/jobs/8346069?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>CAMPOS DOS GOYTACAZES - RJ</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14693,12 +14693,12 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -14735,17 +14735,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO (FLORIANÓPOLIS/SC)</t>
+          <t>ANALISTA FINANCEIRO (CAMPOS DO GOYTACAZES/RJ)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://ambev.gupy.io/jobs/8390998?jobBoardSource=gupy_public_page</t>
+          <t>https://ambev.gupy.io/jobs/8233369?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>PALHOÇA - SC</t>
+          <t>CAMPOS DOS GOYTACAZES - RJ</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -14788,12 +14788,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ANBIMA</t>
+          <t>Ambev</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Organização sem fins lucrativos</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -14803,22 +14803,22 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ESTAGIÁRIO PLATAFORMA DE OPERAÇÕES</t>
+          <t>ANALISTA FINANCEIRO (FLORIANÓPOLIS/SC)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://anbima.gupy.io/jobs/8361280?jobBoardSource=gupy_public_page</t>
+          <t>https://ambev.gupy.io/jobs/8390998?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>PALHOÇA - SC</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>ESTÁGIO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -14829,12 +14829,12 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02 - Estágiario</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -14856,37 +14856,37 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Banco BV</t>
+          <t>ANBIMA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Organização sem fins lucrativos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>PROJECT MANAGER SÊNIOR</t>
+          <t>ESTAGIÁRIO PLATAFORMA DE OPERAÇÕES</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/15a83707-a807-4197-bdf8-38b5245ccb0a</t>
+          <t>https://anbima.gupy.io/jobs/8361280?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">HYBRID — </t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>SÃO PAULO</t>
+          <t>ESTÁGIO</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>02 - Estágiario</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -14939,12 +14939,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>PESSOA COORDENADORA DE DESENVOLVIMENTO DE SISTEMAS - IT LEAD (VAGA AFIRMATIVA PARA MULHERES)</t>
+          <t>PROJECT MANAGER SÊNIOR</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/bv/33dba338-fd26-4b63-be2c-986ce300c47d</t>
+          <t>https://jobs.lever.co/bv/15a83707-a807-4197-bdf8-38b5245ccb0a</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>14 - Coordenador</t>
+          <t>15 - Gerente</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -14992,7 +14992,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Banco Fibra</t>
+          <t>Banco BV</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15002,27 +15002,27 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPECIALISTA TI - DESENVOLVIMENTO DE SISTEMAS</t>
+          <t>PESSOA COORDENADORA DE DESENVOLVIMENTO DE SISTEMAS - IT LEAD (VAGA AFIRMATIVA PARA MULHERES)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://bancofibra.gupy.io/jobs/8404798?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/bv/33dba338-fd26-4b63-be2c-986ce300c47d</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t xml:space="preserve">HYBRID — </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>SÃO PAULO</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>14 - Coordenador</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -15075,17 +15075,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>SUPERVISOR DE ATENDIMENTO</t>
+          <t xml:space="preserve"> ESPECIALISTA TI - DESENVOLVIMENTO DE SISTEMAS</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://bancofibra.gupy.io/jobs/8403000?jobBoardSource=gupy_public_page</t>
+          <t>https://bancofibra.gupy.io/jobs/8404798?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>13 - Supervisor</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -15128,7 +15128,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BMG</t>
+          <t>Banco Fibra</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15143,12 +15143,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ASSOCIATE II</t>
+          <t>SUPERVISOR DE ATENDIMENTO</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://bmg.gupy.io/jobs/8283776?jobBoardSource=gupy_public_page</t>
+          <t>https://bancofibra.gupy.io/jobs/8403000?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>13 - Supervisor</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -15196,12 +15196,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Brasilprev</t>
+          <t>BMG</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -15211,17 +15211,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ANALISTA DE GESTÃO DE RISCOS PLENO</t>
+          <t>ASSOCIATE II</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://brasilprev.gupy.io/jobs/8361374?jobBoardSource=gupy_public_page</t>
+          <t>https://bmg.gupy.io/jobs/8283776?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -15264,12 +15264,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>C&amp;A</t>
+          <t>Brasilprev</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -15279,22 +15279,22 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>ANALISTA DE BI PLENO (SOCIAL MEDIA)</t>
+          <t>ANALISTA DE GESTÃO DE RISCOS PLENO</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8116556?jobBoardSource=gupy_public_page</t>
+          <t>https://brasilprev.gupy.io/jobs/8361374?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>BARUERI - SP E HÍBRIDO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>ASSOCIADO</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -15305,7 +15305,7 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15347,12 +15347,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ANALISTA DE CRM PLENO</t>
+          <t>ANALISTA DE BI PLENO (SOCIAL MEDIA)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/8406735?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8116556?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>ASSOCIADO</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -15415,12 +15415,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ANALISTA DE DIGITAL ANALYTICS SÊNIOR (E-COMMERCE)</t>
+          <t>ANALISTA DE CRM PLENO</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://cea.gupy.io/jobs/7610588?jobBoardSource=gupy_public_page</t>
+          <t>https://cea.gupy.io/jobs/8406735?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -15446,7 +15446,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -15468,37 +15468,37 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>CI&amp;T</t>
+          <t>C&amp;A</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tecnologia</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>[JOB-0000] MID-LEVEL FULLSTACK (JAVA E ANGULAR) DEVELOPER, BRAZIL</t>
+          <t>ANALISTA DE DIGITAL ANALYTICS SÊNIOR (E-COMMERCE)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/56554f87-14b6-4be4-8262-5a15c432fc52</t>
+          <t>https://cea.gupy.io/jobs/7610588?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">REMOTE — </t>
+          <t>BARUERI - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -15509,17 +15509,17 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -15551,12 +15551,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>[JOB-19628] MID-LEVEL ADOBE AEM + REACT DEVELOPER, BRAZIL</t>
+          <t>[JOB-0000] MID-LEVEL FULLSTACK (JAVA E ANGULAR) DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/8821355f-38aa-4b37-97bd-8932cfa7ccf9</t>
+          <t>https://jobs.lever.co/ciandt/56554f87-14b6-4be4-8262-5a15c432fc52</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>NÃO INFORMADO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -15619,12 +15619,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[JOB - 19233] MID LEVEL BACKEND DEVELOPER, BRAZIL</t>
+          <t>[JOB-19628] MID-LEVEL ADOBE AEM + REACT DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/eb5c254f-a363-454c-b6ba-e06cb5379623</t>
+          <t>https://jobs.lever.co/ciandt/8821355f-38aa-4b37-97bd-8932cfa7ccf9</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -15687,12 +15687,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[JOB-19230] SENIOR DEVELOPER IOS, BRAZIL</t>
+          <t>[JOB - 19233] MID LEVEL BACKEND DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/47ed1b22-76ab-4490-a870-5e755c856b40</t>
+          <t>https://jobs.lever.co/ciandt/eb5c254f-a363-454c-b6ba-e06cb5379623</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NÃO INFORMADO</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -15718,7 +15718,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -15755,12 +15755,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[JOB-19588] MID-LEVEL PYTHON DEVELOPER (VAGA AFIRMATIVA PARA MULHERES)</t>
+          <t>[JOB-19230] SENIOR DEVELOPER IOS, BRAZIL</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/a5bbec09-7a67-487c-9a07-8bfe6cd1e149</t>
+          <t>https://jobs.lever.co/ciandt/47ed1b22-76ab-4490-a870-5e755c856b40</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>01 - Sim</t>
+          <t>02 - Não</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[JOB-19589] JUNIOR PYTHON DEVELOPER (VAGA AFIRMATIVA PARA MULHERES)</t>
+          <t>[JOB-19588] MID-LEVEL PYTHON DEVELOPER (VAGA AFIRMATIVA PARA MULHERES)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/398cda47-b2c4-4b2a-bc75-da726947d25a</t>
+          <t>https://jobs.lever.co/ciandt/a5bbec09-7a67-487c-9a07-8bfe6cd1e149</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -15891,12 +15891,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[JOB-19347] MID-LEVEL DEVOPS ENGINEER (AWS), BRAZIL</t>
+          <t>[JOB-19589] JUNIOR PYTHON DEVELOPER (VAGA AFIRMATIVA PARA MULHERES)</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/4e38f6bc-2eeb-4d8b-bc86-ae458b06dbc0</t>
+          <t>https://jobs.lever.co/ciandt/398cda47-b2c4-4b2a-bc75-da726947d25a</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -15906,7 +15906,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CAMPINAS, SP / BRAZIL</t>
+          <t>BRAZIL / SÃO PAULO, SP / CAMPINAS, SP</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -15959,12 +15959,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[JOB-19347] MID-LEVEL DEVOPS ENGINEER (AWS), COLOMBIA</t>
+          <t>[JOB-19347] MID-LEVEL DEVOPS ENGINEER (AWS), BRAZIL</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/8da23095-1e13-49b4-8c46-1ba23cdadb89</t>
+          <t>https://jobs.lever.co/ciandt/4e38f6bc-2eeb-4d8b-bc86-ae458b06dbc0</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>BOGOTÁ / COLOMBIA</t>
+          <t>CAMPINAS, SP / BRAZIL</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -16027,12 +16027,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[JOB-189354] SRE DEVELOPER, BRAZIL</t>
+          <t>[JOB-19347] MID-LEVEL DEVOPS ENGINEER (AWS), COLOMBIA</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/3d081b67-be27-4681-9e80-806aab68587e</t>
+          <t>https://jobs.lever.co/ciandt/8da23095-1e13-49b4-8c46-1ba23cdadb89</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>SÃO PAULO, SP / BRAZIL</t>
+          <t>BOGOTÁ / COLOMBIA</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -16095,12 +16095,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[JOB - JAVA] SENIOR DATA DEVELOPER, COLOMBIA</t>
+          <t>[JOB-189354] SRE DEVELOPER, BRAZIL</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://jobs.lever.co/ciandt/df0d66a7-ff84-40ae-9cc8-d7ce216edde4</t>
+          <t>https://jobs.lever.co/ciandt/3d081b67-be27-4681-9e80-806aab68587e</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SÃO PAULO, SP / BRAZIL</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -16121,12 +16121,12 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -16148,37 +16148,37 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Genial Investimentos</t>
+          <t>CI&amp;T</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Corretora</t>
+          <t>Tecnologia</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Gupy</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ANALISTA PLENO DE CONTROLE FINANCEIRO (CONTAS A PAGAR)</t>
+          <t>[JOB - JAVA] SENIOR DATA DEVELOPER, COLOMBIA</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://genial.gupy.io/jobs/8408119?jobBoardSource=gupy_public_page</t>
+          <t>https://jobs.lever.co/ciandt/df0d66a7-ff84-40ae-9cc8-d7ce216edde4</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP</t>
+          <t xml:space="preserve">REMOTE — </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>EFETIVO</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -16189,17 +16189,17 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>08 - Pleno</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>02 - Não</t>
+          <t>01 - Sim</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -16231,12 +16231,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>ANALISTA SÊNIOR - BUSINESS PARTNER TECH (HRBP)</t>
+          <t>ANALISTA PLENO DE CONTROLE FINANCEIRO (CONTAS A PAGAR)</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://genial.gupy.io/jobs/8410397?jobBoardSource=gupy_public_page</t>
+          <t>https://genial.gupy.io/jobs/8408119?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -16257,12 +16257,12 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>08 - Pleno</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -16284,12 +16284,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Grupo Boticário</t>
+          <t>Genial Investimentos</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cosméticos</t>
+          <t>Corretora</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -16299,17 +16299,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L FORTALEZA/CE</t>
+          <t>ANALISTA SÊNIOR - BUSINESS PARTNER TECH (HRBP)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://grupoboticario.gupy.io/jobs/8368662?jobBoardSource=gupy_public_page</t>
+          <t>https://genial.gupy.io/jobs/8410397?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>FORTALEZA - CE</t>
+          <t>SÃO PAULO - SP</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>07 - Júnior</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -16352,32 +16352,32 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
+          <t>Grupo Boticário</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Cosméticos</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
           <t>Gupy</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Recrutamento</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Gupy</t>
-        </is>
-      </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>MARKETING | ESPECIALISTA DE PRODUCT MARKETING</t>
+          <t>AGENTE DE CAPTAÇÃO DE REVENDEDORES L FORTALEZA/CE</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://vempra.gupy.io/jobs/7987982?jobBoardSource=gupy_public_page</t>
+          <t>https://grupoboticario.gupy.io/jobs/8368662?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>FORTALEZA - CE</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -16393,12 +16393,12 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr">
         <is>
-          <t>03 - Marketing</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>07 - Júnior</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -16420,12 +16420,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Hering</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Varejo</t>
+          <t>Recrutamento</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -16435,17 +16435,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CIA HERING | ANALISTA DE PCP III | INDUSTRIA - FILIAL SÃO LUIS MONTES BELOS/GO</t>
+          <t>MARKETING | ESPECIALISTA DE PRODUCT MARKETING</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://ciahering.gupy.io/jobs/8286933?jobBoardSource=gupy_public_page</t>
+          <t>https://vempra.gupy.io/jobs/7987982?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>SÃO LUÍS DE MONTES BELOS - GO</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -16461,12 +16461,12 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>03 - Marketing</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -16488,12 +16488,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Mercedes-Benz Caminhões &amp; Ônibus (Externa)</t>
+          <t>Hering</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Automóvel</t>
+          <t>Varejo</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -16503,17 +16503,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ANALISTA FINANCEIRO | MBPREV</t>
+          <t>CIA HERING | ANALISTA DE PCP III | INDUSTRIA - FILIAL SÃO LUIS MONTES BELOS/GO</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://mercedes-benzcaminhoeseonibus.gupy.io/jobs/8402257?jobBoardSource=gupy_public_page</t>
+          <t>https://ciahering.gupy.io/jobs/8286933?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>SÃO BERNARDO DO CAMPO - SP</t>
+          <t>SÃO LUÍS DE MONTES BELOS - GO</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -16529,12 +16529,12 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr">
         <is>
-          <t>02 - Finanças</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -16556,12 +16556,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MJV</t>
+          <t>Mercedes-Benz Caminhões &amp; Ônibus (Externa)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Consultoria</t>
+          <t>Automóvel</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -16571,17 +16571,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ANALISTA DE CRM</t>
+          <t>ANALISTA FINANCEIRO | MBPREV</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://mjvcarreiras.gupy.io/jobs/8377912?jobBoardSource=gupy_public_page</t>
+          <t>https://mercedes-benzcaminhoeseonibus.gupy.io/jobs/8402257?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>SÃO PAULO - SP E HÍBRIDO</t>
+          <t>SÃO BERNARDO DO CAMPO - SP</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -16597,7 +16597,7 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr">
         <is>
-          <t>01 - Dados</t>
+          <t>02 - Finanças</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16624,12 +16624,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>MJV</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Seguradora</t>
+          <t>Consultoria</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -16639,12 +16639,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ANALISTA DE GOVERNANÇA SÊNIOR</t>
+          <t>ANALISTA DE CRM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://porto.gupy.io/jobs/7941472?jobBoardSource=gupy_public_page</t>
+          <t>https://mjvcarreiras.gupy.io/jobs/8377912?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -16665,12 +16665,12 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr">
         <is>
-          <t>999 - Não definido</t>
+          <t>01 - Dados</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>09 - Sênior</t>
+          <t>999 - Não definido</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -16692,37 +16692,37 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Quinto Andar</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Imoveis</t>
+          <t>Seguradora</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Workable</t>
+          <t>Gupy</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Especialista en Políticas Financieras</t>
+          <t>ANALISTA DE GOVERNANÇA SÊNIOR</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/1F0FC2AB7F</t>
+          <t>https://porto.gupy.io/jobs/7941472?jobBoardSource=gupy_public_page</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Buenos Aires / Argentina</t>
+          <t>SÃO PAULO - SP E HÍBRIDO</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>PRESENCIAL</t>
+          <t>EFETIVO</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>11 - Especialista</t>
+          <t>09 - Sênior</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -16775,17 +16775,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Grupo QuintoAndar | Pessoa Gerente de Operações (TQC)</t>
+          <t>Grupo QuintoAndar | Especialista en Políticas Financieras</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://apply.workable.com/quintoandar/j/E81B9B8FD1</t>
+          <t>https://apply.workable.com/quintoandar/j/1F0FC2AB7F</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>São Paulo / Brazil</t>
+          <t>Buenos Aires / Argentina</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>15 - Gerente</t>
+          <t>11 - Especialista</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
